--- a/data/nirs_information.xlsx
+++ b/data/nirs_information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D731BC5-3868-4ACE-8243-71D0EA6F17DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB897C-778B-4591-9A89-CC14253802CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="202">
   <si>
     <t>name</t>
   </si>
@@ -539,18 +539,12 @@
     <t>成成</t>
   </si>
   <si>
-    <t>b2415</t>
-  </si>
-  <si>
     <t>2021-10-23_002</t>
   </si>
   <si>
     <t>岳岳</t>
   </si>
   <si>
-    <t>b2417</t>
-  </si>
-  <si>
     <t>2021-10-23_005</t>
   </si>
   <si>
@@ -581,9 +575,6 @@
     <t>正宝</t>
   </si>
   <si>
-    <t>b2412</t>
-  </si>
-  <si>
     <t>2021-10-30_005</t>
   </si>
   <si>
@@ -606,9 +597,6 @@
   </si>
   <si>
     <t>昊昊</t>
-  </si>
-  <si>
-    <t>b2418</t>
   </si>
   <si>
     <t>2021-10-31_005</t>
@@ -657,7 +645,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -751,7 +739,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -775,10 +763,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -804,7 +792,7 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1102,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,25 +1105,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,37 +1153,37 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>44398</v>
-      </c>
-      <c r="F3" s="10">
-        <v>51</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>44415</v>
+      </c>
+      <c r="F3" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
@@ -1204,50 +1192,50 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>44415</v>
+        <v>44413</v>
       </c>
       <c r="F4" s="4">
-        <v>54.5</v>
+        <v>52.5</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>44398</v>
-      </c>
-      <c r="F5" s="10">
-        <v>53</v>
-      </c>
-      <c r="G5" s="6" t="s">
+        <v>44413</v>
+      </c>
+      <c r="F5" s="4">
+        <v>51</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
@@ -1256,50 +1244,50 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>44413</v>
+        <v>44417</v>
       </c>
       <c r="F6" s="4">
-        <v>52.5</v>
+        <v>51.8</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="9">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>44399</v>
-      </c>
-      <c r="F7" s="10">
-        <v>53.5</v>
-      </c>
-      <c r="G7" s="6" t="s">
+        <v>44415</v>
+      </c>
+      <c r="F7" s="4">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -1308,50 +1296,50 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="F8" s="4">
-        <v>51</v>
+        <v>51.5</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>108</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>44399</v>
-      </c>
-      <c r="F9" s="10">
-        <v>50</v>
-      </c>
-      <c r="G9" s="6" t="s">
+        <v>44414</v>
+      </c>
+      <c r="F9" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
@@ -1360,48 +1348,50 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>44417</v>
+        <v>44416</v>
       </c>
       <c r="F10" s="4">
-        <v>51.8</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="19">
-        <v>5</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20">
-        <v>44400</v>
-      </c>
-      <c r="F11" s="21">
-        <v>51</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="22"/>
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4">
+        <v>111</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>44416</v>
+      </c>
+      <c r="F11" s="4">
+        <v>52</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
@@ -1410,24 +1400,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="F12" s="4">
-        <v>51</v>
+        <v>50.2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
@@ -1436,50 +1426,50 @@
         <v>1</v>
       </c>
       <c r="E13" s="5">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="F13" s="4">
-        <v>51.5</v>
+        <v>49.3</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="9">
-        <v>7</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>115</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4">
         <v>1</v>
       </c>
       <c r="E14" s="5">
-        <v>44400</v>
-      </c>
-      <c r="F14" s="10">
-        <v>53.5</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>44416</v>
+      </c>
+      <c r="F14" s="4">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
@@ -1488,50 +1478,50 @@
         <v>1</v>
       </c>
       <c r="E15" s="5">
-        <v>44414</v>
+        <v>44418</v>
       </c>
       <c r="F15" s="4">
-        <v>54.5</v>
+        <v>52</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="9">
-        <v>8</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4">
+        <v>117</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>44400</v>
-      </c>
-      <c r="F16" s="10">
-        <v>53</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <v>44416</v>
+      </c>
+      <c r="F16" s="4">
+        <v>50.7</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>2</v>
@@ -1540,76 +1530,76 @@
         <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>44416</v>
+        <v>44415</v>
       </c>
       <c r="F17" s="4">
-        <v>51</v>
+        <v>54.4</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="9">
-        <v>9</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="9">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>119</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>44401</v>
-      </c>
-      <c r="F18" s="11">
-        <v>50.2</v>
-      </c>
-      <c r="G18" s="6" t="s">
+        <v>44417</v>
+      </c>
+      <c r="F18" s="4">
+        <v>53</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="9">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="9">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4">
+        <v>120</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
         <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>44401</v>
+        <v>44417</v>
       </c>
       <c r="F19" s="4">
-        <v>54</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <v>52.2</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>2</v>
@@ -1621,21 +1611,21 @@
         <v>44416</v>
       </c>
       <c r="F20" s="4">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>2</v>
@@ -1644,50 +1634,50 @@
         <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>44416</v>
+        <v>44418</v>
       </c>
       <c r="F21" s="4">
-        <v>50.2</v>
+        <v>53</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4">
-        <v>13</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>96</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>44403</v>
+        <v>44418</v>
       </c>
       <c r="F22" s="4">
-        <v>53</v>
-      </c>
-      <c r="G22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B23" s="4">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>2</v>
@@ -1696,50 +1686,50 @@
         <v>1</v>
       </c>
       <c r="E23" s="5">
-        <v>44415</v>
+        <v>44420</v>
       </c>
       <c r="F23" s="4">
-        <v>49.3</v>
+        <v>53.2</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B24" s="4">
-        <v>14</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>96</v>
+        <v>125</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>44403</v>
+        <v>44418</v>
       </c>
       <c r="F24" s="4">
-        <v>53</v>
-      </c>
-      <c r="G24" s="6" t="s">
+        <v>52.5</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B25" s="4">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
@@ -1748,50 +1738,50 @@
         <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="F25" s="4">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4">
-        <v>15</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>96</v>
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="5">
-        <v>44403</v>
+        <v>44418</v>
       </c>
       <c r="F26" s="4">
-        <v>52.5</v>
-      </c>
-      <c r="G26" s="6" t="s">
+        <v>53.9</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>2</v>
@@ -1800,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="5">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="F27" s="4">
         <v>52</v>
@@ -1809,41 +1799,41 @@
         <v>3</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4">
-        <v>16</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>96</v>
+        <v>129</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
       <c r="E28" s="5">
-        <v>44403</v>
+        <v>44418</v>
       </c>
       <c r="F28" s="4">
-        <v>50.5</v>
-      </c>
-      <c r="G28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B29" s="4">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2</v>
@@ -1852,50 +1842,50 @@
         <v>1</v>
       </c>
       <c r="E29" s="5">
-        <v>44416</v>
+        <v>44420</v>
       </c>
       <c r="F29" s="4">
-        <v>50.7</v>
+        <v>49.5</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B30" s="4">
-        <v>17</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>96</v>
+        <v>202</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="5">
-        <v>44404</v>
+        <v>44420</v>
       </c>
       <c r="F30" s="4">
-        <v>52.2</v>
-      </c>
-      <c r="G30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B31" s="4">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>2</v>
@@ -1904,50 +1894,50 @@
         <v>1</v>
       </c>
       <c r="E31" s="5">
-        <v>44415</v>
+        <v>44420</v>
       </c>
       <c r="F31" s="4">
-        <v>54.4</v>
+        <v>52.5</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4">
-        <v>18</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>96</v>
+        <v>204</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
       </c>
       <c r="E32" s="5">
-        <v>44404</v>
+        <v>44420</v>
       </c>
       <c r="F32" s="4">
-        <v>54.5</v>
-      </c>
-      <c r="G32" s="6" t="s">
+        <v>51.5</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>2</v>
@@ -1956,50 +1946,50 @@
         <v>1</v>
       </c>
       <c r="E33" s="5">
-        <v>44417</v>
+        <v>44421</v>
       </c>
       <c r="F33" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4">
-        <v>19</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>96</v>
+        <v>206</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="E34" s="5">
-        <v>44404</v>
+        <v>44421</v>
       </c>
       <c r="F34" s="4">
-        <v>52</v>
+        <v>50.8</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>2</v>
@@ -2008,50 +1998,50 @@
         <v>1</v>
       </c>
       <c r="E35" s="5">
-        <v>44417</v>
+        <v>44421</v>
       </c>
       <c r="F35" s="4">
-        <v>52.2</v>
+        <v>53</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4">
-        <v>20</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>96</v>
+        <v>208</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
       </c>
       <c r="E36" s="5">
-        <v>44404</v>
+        <v>44421</v>
       </c>
       <c r="F36" s="4">
-        <v>51</v>
-      </c>
-      <c r="G36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B37" s="4">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>2</v>
@@ -2060,50 +2050,50 @@
         <v>1</v>
       </c>
       <c r="E37" s="5">
-        <v>44416</v>
+        <v>44422</v>
       </c>
       <c r="F37" s="4">
-        <v>50</v>
+        <v>51.5</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4">
-        <v>21</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>96</v>
+        <v>217</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="5">
-        <v>44406</v>
+      <c r="E38" s="7">
+        <v>44424</v>
       </c>
       <c r="F38" s="4">
-        <v>49.7</v>
+        <v>51</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B39" s="4">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>2</v>
@@ -2111,51 +2101,51 @@
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="5">
-        <v>44418</v>
+      <c r="E39" s="7">
+        <v>44424</v>
       </c>
       <c r="F39" s="4">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B40" s="4">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="5">
-        <v>44405</v>
+      <c r="E40" s="7">
+        <v>44424</v>
       </c>
       <c r="F40" s="4">
-        <v>52</v>
+        <v>52.7</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>2</v>
@@ -2163,1113 +2153,1113 @@
       <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="5">
-        <v>44418</v>
+      <c r="E41" s="7">
+        <v>44424</v>
       </c>
       <c r="F41" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
       </c>
       <c r="E42" s="5">
-        <v>44405</v>
+        <v>44423</v>
       </c>
       <c r="F42" s="4">
-        <v>50.3</v>
+        <v>52.5</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B43" s="4">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
       </c>
       <c r="E43" s="5">
-        <v>44420</v>
+        <v>44422</v>
       </c>
       <c r="F43" s="4">
-        <v>53.2</v>
+        <v>52</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B44" s="4">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
       </c>
       <c r="E44" s="5">
-        <v>44405</v>
+        <v>44422</v>
       </c>
       <c r="F44" s="4">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="4">
-        <v>125</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="5">
-        <v>44418</v>
-      </c>
-      <c r="F45" s="4">
-        <v>52.5</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="A45" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="25">
+        <v>213</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="25">
+        <v>1</v>
+      </c>
+      <c r="E45" s="20">
+        <v>44423</v>
+      </c>
+      <c r="F45" s="25">
+        <v>52</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="24"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B46" s="4">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
       </c>
       <c r="E46" s="5">
-        <v>44406</v>
+        <v>44423</v>
       </c>
       <c r="F46" s="4">
-        <v>53</v>
+        <v>50.2</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B47" s="4">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
       </c>
       <c r="E47" s="5">
-        <v>44417</v>
+        <v>44423</v>
       </c>
       <c r="F47" s="4">
-        <v>50.5</v>
+        <v>52</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="4">
+        <v>216</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>44422</v>
+      </c>
+      <c r="F48" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>44398</v>
+      </c>
+      <c r="F49" s="10">
         <v>51</v>
       </c>
-      <c r="B48" s="4">
-        <v>127</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="5">
-        <v>44418</v>
-      </c>
-      <c r="F48" s="4">
-        <v>53.9</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="G49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="9">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>44398</v>
+      </c>
+      <c r="F50" s="10">
         <v>53</v>
       </c>
-      <c r="B49" s="4">
-        <v>128</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>44417</v>
-      </c>
-      <c r="F49" s="4">
-        <v>52</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="4">
-        <v>129</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5">
-        <v>44418</v>
-      </c>
-      <c r="F50" s="4">
-        <v>54</v>
-      </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="3">
-        <v>31</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7">
-        <v>44481</v>
-      </c>
-      <c r="F51" s="4">
-        <v>53.1</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>150</v>
+      <c r="A51" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="9">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="9">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>44399</v>
+      </c>
+      <c r="F51" s="10">
+        <v>53.5</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="4">
-        <v>32</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7">
-        <v>44482</v>
-      </c>
-      <c r="F52" s="4">
-        <v>49.8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>154</v>
+      <c r="A52" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="9">
+        <v>4</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="9">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>44399</v>
+      </c>
+      <c r="F52" s="10">
+        <v>50</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B53" s="4">
-        <v>33</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7">
-        <v>44482</v>
-      </c>
-      <c r="F53" s="4">
-        <v>50</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A53" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="19">
+        <v>5</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="19">
+        <v>1</v>
+      </c>
+      <c r="E53" s="20">
+        <v>44400</v>
+      </c>
+      <c r="F53" s="21">
+        <v>51</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="4">
-        <v>34</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="4">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7">
-        <v>44483</v>
-      </c>
-      <c r="F54" s="4">
-        <v>53.3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>158</v>
+      <c r="A54" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="9">
+        <v>7</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="9">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>44400</v>
+      </c>
+      <c r="F54" s="10">
+        <v>53.5</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="4">
-        <v>35</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="4">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7">
-        <v>44483</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="A55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="9">
+        <v>8</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="9">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>44400</v>
+      </c>
+      <c r="F55" s="10">
+        <v>53</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="9">
+        <v>9</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="9">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>44401</v>
+      </c>
+      <c r="F56" s="11">
         <v>50.2</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B56" s="4">
-        <v>36</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7">
-        <v>44488</v>
-      </c>
-      <c r="F56" s="4">
-        <v>51.2</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="24" t="s">
-        <v>205</v>
+      <c r="G56" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="4">
-        <v>37</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7">
-        <v>44489</v>
+        <v>111</v>
+      </c>
+      <c r="B57" s="9">
+        <v>10</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="9">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>44401</v>
       </c>
       <c r="F57" s="4">
-        <v>52</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>164</v>
+        <v>54</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="B58" s="4">
-        <v>201</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
       <c r="E58" s="5">
-        <v>44420</v>
+        <v>44403</v>
       </c>
       <c r="F58" s="4">
-        <v>49.5</v>
-      </c>
-      <c r="G58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B59" s="4">
-        <v>202</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="5">
-        <v>44420</v>
+        <v>44403</v>
       </c>
       <c r="F59" s="4">
-        <v>52</v>
-      </c>
-      <c r="G59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B60" s="4">
-        <v>203</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
       </c>
       <c r="E60" s="5">
-        <v>44420</v>
+        <v>44403</v>
       </c>
       <c r="F60" s="4">
         <v>52.5</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="B61" s="4">
-        <v>204</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
       </c>
       <c r="E61" s="5">
-        <v>44420</v>
+        <v>44403</v>
       </c>
       <c r="F61" s="4">
-        <v>51.5</v>
-      </c>
-      <c r="G61" s="3" t="s">
+        <v>50.5</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B62" s="4">
-        <v>205</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
       </c>
       <c r="E62" s="5">
-        <v>44421</v>
+        <v>44404</v>
       </c>
       <c r="F62" s="4">
-        <v>52</v>
-      </c>
-      <c r="G62" s="3" t="s">
+        <v>52.2</v>
+      </c>
+      <c r="G62" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="B63" s="4">
-        <v>206</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="5">
-        <v>44421</v>
+        <v>44404</v>
       </c>
       <c r="F63" s="4">
-        <v>50.8</v>
-      </c>
-      <c r="G63" s="3" t="s">
+        <v>54.5</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="B64" s="4">
-        <v>207</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64" s="5">
-        <v>44421</v>
+        <v>44404</v>
       </c>
       <c r="F64" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B65" s="4">
-        <v>208</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
       </c>
       <c r="E65" s="5">
-        <v>44421</v>
+        <v>44404</v>
       </c>
       <c r="F65" s="4">
-        <v>52</v>
-      </c>
-      <c r="G65" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="B66" s="4">
-        <v>209</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="5">
-        <v>44422</v>
+        <v>44406</v>
       </c>
       <c r="F66" s="4">
-        <v>51.5</v>
+        <v>49.7</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B67" s="4">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
       </c>
       <c r="E67" s="5">
-        <v>44423</v>
+        <v>44405</v>
       </c>
       <c r="F67" s="4">
-        <v>52.5</v>
+        <v>52</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B68" s="4">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
       </c>
       <c r="E68" s="5">
-        <v>44422</v>
+        <v>44405</v>
       </c>
       <c r="F68" s="4">
-        <v>52</v>
+        <v>50.3</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B69" s="4">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="5">
-        <v>44422</v>
+        <v>44405</v>
       </c>
       <c r="F69" s="4">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B70" s="25">
-        <v>213</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="25">
-        <v>1</v>
-      </c>
-      <c r="E70" s="20">
-        <v>44423</v>
-      </c>
-      <c r="F70" s="25">
-        <v>52</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="24"/>
+      <c r="A70" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="4">
+        <v>25</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>44406</v>
+      </c>
+      <c r="F70" s="4">
+        <v>53</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="B71" s="4">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
       </c>
-      <c r="E71" s="5">
-        <v>44423</v>
+      <c r="E71" s="7">
+        <v>44481</v>
       </c>
       <c r="F71" s="4">
-        <v>50.2</v>
+        <v>53.1</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>84</v>
+      <c r="H71" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="B72" s="4">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E72" s="5">
-        <v>44423</v>
+      <c r="E72" s="7">
+        <v>44482</v>
       </c>
       <c r="F72" s="4">
-        <v>52</v>
+        <v>49.8</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>86</v>
+      <c r="H72" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="B73" s="4">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
       </c>
-      <c r="E73" s="5">
-        <v>44422</v>
+      <c r="E73" s="7">
+        <v>44482</v>
       </c>
       <c r="F73" s="4">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H73" s="6" t="s">
-        <v>77</v>
+      <c r="H73" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="B74" s="4">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74" s="7">
-        <v>44424</v>
+        <v>44483</v>
       </c>
       <c r="F74" s="4">
-        <v>51</v>
+        <v>53.3</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>90</v>
+      <c r="H74" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="B75" s="4">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="7">
-        <v>44424</v>
+        <v>44483</v>
       </c>
       <c r="F75" s="4">
-        <v>51</v>
+        <v>50.2</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="6" t="s">
-        <v>140</v>
+      <c r="H75" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B76" s="4">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
       <c r="E76" s="7">
-        <v>44424</v>
+        <v>44488</v>
       </c>
       <c r="F76" s="4">
-        <v>52.7</v>
+        <v>51.2</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H76" s="6" t="s">
-        <v>94</v>
+      <c r="H76" s="24" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="B77" s="4">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77" s="7">
-        <v>44424</v>
+        <v>44489</v>
       </c>
       <c r="F77" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B78" s="4">
-        <v>2401</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7">
-        <v>44481</v>
-      </c>
-      <c r="F78" s="4">
-        <v>50.8</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B79" s="4">
-        <v>2403</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="4">
-        <v>1</v>
-      </c>
-      <c r="E79" s="7">
-        <v>44479</v>
-      </c>
-      <c r="F79" s="4">
+      <c r="H77" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B78" s="12">
+        <v>38</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1</v>
+      </c>
+      <c r="E78" s="15">
+        <v>44490</v>
+      </c>
+      <c r="F78" s="12">
+        <v>51.4</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="12">
+        <v>39</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="12">
+        <v>2</v>
+      </c>
+      <c r="E79" s="15">
+        <v>44490</v>
+      </c>
+      <c r="F79" s="12">
         <v>52</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="4">
-        <v>2404</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7">
-        <v>44479</v>
-      </c>
-      <c r="F80" s="4">
-        <v>53</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="4">
-        <v>2405</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="4">
-        <v>1</v>
-      </c>
-      <c r="E81" s="7">
-        <v>44479</v>
-      </c>
-      <c r="F81" s="4">
+      <c r="G79" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="12">
+        <v>40</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1</v>
+      </c>
+      <c r="E80" s="15">
+        <v>44491</v>
+      </c>
+      <c r="F80" s="12">
         <v>52</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B82" s="4">
-        <v>2406</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="4">
-        <v>1</v>
-      </c>
-      <c r="E82" s="7">
-        <v>44479</v>
-      </c>
-      <c r="F82" s="4">
-        <v>54</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" s="25">
-        <v>2416</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" s="25">
-        <v>1</v>
-      </c>
-      <c r="E83" s="26">
-        <v>44484</v>
-      </c>
-      <c r="F83" s="25">
+      <c r="G80" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="12">
+        <v>41</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+      <c r="E81" s="15">
+        <v>44491</v>
+      </c>
+      <c r="F81" s="12">
         <v>50</v>
       </c>
-      <c r="G83" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="24"/>
-    </row>
-    <row r="84" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="12">
+        <v>42</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="12">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15">
+        <v>44493</v>
+      </c>
+      <c r="F82" s="12">
+        <v>51</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="12">
+        <v>43</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="12">
+        <v>1</v>
+      </c>
+      <c r="E83" s="15">
+        <v>44493</v>
+      </c>
+      <c r="F83" s="12">
+        <v>51.2</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B84" s="12">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>96</v>
@@ -3278,16 +3268,16 @@
         <v>1</v>
       </c>
       <c r="E84" s="15">
-        <v>44490</v>
+        <v>44499</v>
       </c>
       <c r="F84" s="12">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H84" s="13" t="s">
-        <v>167</v>
+      <c r="H84" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -3305,28 +3295,28 @@
     </row>
     <row r="85" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B85" s="12">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D85" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E85" s="15">
-        <v>44490</v>
+        <v>44499</v>
       </c>
       <c r="F85" s="12">
-        <v>52</v>
+        <v>50.5</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -3344,28 +3334,28 @@
     </row>
     <row r="86" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>171</v>
+        <v>186</v>
+      </c>
+      <c r="B86" s="12">
+        <v>46</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D86" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" s="15">
-        <v>44491</v>
+        <v>44499</v>
       </c>
       <c r="F86" s="12">
-        <v>53.3</v>
+        <v>51.2</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -3383,28 +3373,28 @@
     </row>
     <row r="87" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>174</v>
+        <v>188</v>
+      </c>
+      <c r="B87" s="12">
+        <v>47</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D87" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" s="15">
-        <v>44491</v>
+        <v>44500</v>
       </c>
       <c r="F87" s="12">
-        <v>51.2</v>
+        <v>50.2</v>
       </c>
       <c r="G87" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -3422,10 +3412,10 @@
     </row>
     <row r="88" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B88" s="12">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>96</v>
@@ -3434,16 +3424,16 @@
         <v>1</v>
       </c>
       <c r="E88" s="15">
-        <v>44491</v>
+        <v>44500</v>
       </c>
       <c r="F88" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
@@ -3460,29 +3450,29 @@
       <c r="W88" s="14"/>
     </row>
     <row r="89" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="12">
-        <v>41</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D89" s="12">
-        <v>1</v>
-      </c>
-      <c r="E89" s="15">
-        <v>44491</v>
-      </c>
-      <c r="F89" s="12">
-        <v>50</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>178</v>
+      <c r="A89" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" s="4">
+        <v>2401</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
+      </c>
+      <c r="E89" s="7">
+        <v>44481</v>
+      </c>
+      <c r="F89" s="4">
+        <v>50.8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -3499,29 +3489,29 @@
       <c r="W89" s="14"/>
     </row>
     <row r="90" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B90" s="12">
-        <v>42</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D90" s="12">
-        <v>1</v>
-      </c>
-      <c r="E90" s="15">
-        <v>44493</v>
-      </c>
-      <c r="F90" s="12">
-        <v>51</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>179</v>
+      <c r="A90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2403</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="7">
+        <v>44479</v>
+      </c>
+      <c r="F90" s="4">
+        <v>52</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
@@ -3538,29 +3528,29 @@
       <c r="W90" s="14"/>
     </row>
     <row r="91" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="B91" s="12">
-        <v>43</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D91" s="12">
-        <v>1</v>
-      </c>
-      <c r="E91" s="15">
-        <v>44493</v>
-      </c>
-      <c r="F91" s="12">
-        <v>51.2</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>181</v>
+      <c r="A91" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B91" s="4">
+        <v>2404</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="7">
+        <v>44479</v>
+      </c>
+      <c r="F91" s="4">
+        <v>53</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
@@ -3577,29 +3567,29 @@
       <c r="W91" s="14"/>
     </row>
     <row r="92" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="B92" s="12">
-        <v>44</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" s="12">
-        <v>1</v>
-      </c>
-      <c r="E92" s="15">
-        <v>44499</v>
-      </c>
-      <c r="F92" s="12">
-        <v>51.5</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>183</v>
+      <c r="A92" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B92" s="4">
+        <v>2405</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="7">
+        <v>44479</v>
+      </c>
+      <c r="F92" s="4">
+        <v>52</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -3616,29 +3606,29 @@
       <c r="W92" s="14"/>
     </row>
     <row r="93" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="12">
-        <v>1</v>
-      </c>
-      <c r="E93" s="15">
-        <v>44499</v>
-      </c>
-      <c r="F93" s="12">
-        <v>52.2</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="16" t="s">
-        <v>186</v>
+      <c r="A93" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="4">
+        <v>2406</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7">
+        <v>44479</v>
+      </c>
+      <c r="F93" s="4">
+        <v>54</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
@@ -3656,10 +3646,10 @@
     </row>
     <row r="94" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="12">
-        <v>45</v>
+        <v>182</v>
+      </c>
+      <c r="B94" s="13">
+        <v>2412</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>96</v>
@@ -3671,13 +3661,13 @@
         <v>44499</v>
       </c>
       <c r="F94" s="12">
-        <v>50.5</v>
+        <v>52.2</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -3695,28 +3685,28 @@
     </row>
     <row r="95" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="12">
-        <v>46</v>
+        <v>170</v>
+      </c>
+      <c r="B95" s="13">
+        <v>2415</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D95" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" s="15">
-        <v>44499</v>
+        <v>44491</v>
       </c>
       <c r="F95" s="12">
-        <v>51.2</v>
+        <v>53.3</v>
       </c>
       <c r="G95" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -3733,30 +3723,28 @@
       <c r="W95" s="14"/>
     </row>
     <row r="96" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="12">
-        <v>47</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="12">
-        <v>2</v>
-      </c>
-      <c r="E96" s="15">
-        <v>44500</v>
-      </c>
-      <c r="F96" s="12">
-        <v>50.2</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>192</v>
-      </c>
+      <c r="A96" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="25">
+        <v>2416</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D96" s="25">
+        <v>1</v>
+      </c>
+      <c r="E96" s="26">
+        <v>44484</v>
+      </c>
+      <c r="F96" s="25">
+        <v>50</v>
+      </c>
+      <c r="G96" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H96" s="24"/>
       <c r="I96" s="13"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
@@ -3773,10 +3761,10 @@
     </row>
     <row r="97" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>194</v>
+        <v>172</v>
+      </c>
+      <c r="B97" s="13">
+        <v>2417</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>96</v>
@@ -3785,16 +3773,16 @@
         <v>1</v>
       </c>
       <c r="E97" s="15">
-        <v>44500</v>
+        <v>44491</v>
       </c>
       <c r="F97" s="12">
-        <v>51.5</v>
+        <v>51.2</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="14"/>
@@ -3812,10 +3800,10 @@
     </row>
     <row r="98" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B98" s="12">
-        <v>48</v>
+        <v>190</v>
+      </c>
+      <c r="B98" s="13">
+        <v>2418</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>96</v>
@@ -3827,13 +3815,13 @@
         <v>44500</v>
       </c>
       <c r="F98" s="12">
-        <v>51</v>
+        <v>51.5</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="14"/>
@@ -3851,8 +3839,8 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:C98" xr:uid="{6E4D8C50-1220-48A0-974B-011AD765162C}"/>
-  <sortState ref="A2:H83">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:H99">
+    <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/nirs_information.xlsx
+++ b/data/nirs_information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEB897C-778B-4591-9A89-CC14253802CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE035D97-1214-4EB1-956E-94C35F9F31D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
   <si>
     <t>name</t>
   </si>
@@ -31,12 +31,6 @@
     <t>张栋旭</t>
   </si>
   <si>
-    <t>ASD</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>2021-08-05_003</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>刘宸硕</t>
   </si>
   <si>
-    <t xml:space="preserve">ASD </t>
-  </si>
-  <si>
     <t>2021-08-14_007</t>
   </si>
   <si>
@@ -313,9 +304,6 @@
     <t>萌萌</t>
   </si>
   <si>
-    <t>TD</t>
-  </si>
-  <si>
     <t>2021-07-21_005</t>
   </si>
   <si>
@@ -518,10 +506,6 @@
   </si>
   <si>
     <t>2021-10-20_002</t>
-  </si>
-  <si>
-    <t>TD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>芝麻</t>
@@ -625,10 +609,6 @@
   </si>
   <si>
     <t>head_size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hat_size</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1088,53 +1068,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>101</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -1145,22 +1122,19 @@
       <c r="F2" s="4">
         <v>53</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>102</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -1171,22 +1145,19 @@
       <c r="F3" s="4">
         <v>54.5</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>103</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
+      <c r="C4" s="3">
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1197,22 +1168,19 @@
       <c r="F4" s="4">
         <v>52.5</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4">
         <v>104</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
+      <c r="C5" s="3">
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1223,22 +1191,19 @@
       <c r="F5" s="4">
         <v>51</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>105</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
+      <c r="C6" s="3">
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1249,22 +1214,19 @@
       <c r="F6" s="4">
         <v>51.8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>106</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
+      <c r="C7" s="3">
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -1275,22 +1237,19 @@
       <c r="F7" s="4">
         <v>51</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4">
         <v>107</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -1301,22 +1260,19 @@
       <c r="F8" s="4">
         <v>51.5</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>108</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
+      <c r="C9" s="3">
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1327,22 +1283,19 @@
       <c r="F9" s="4">
         <v>54.5</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4">
         <v>109</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1353,22 +1306,19 @@
       <c r="F10" s="4">
         <v>51</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
         <v>111</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
+      <c r="C11" s="3">
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1379,22 +1329,19 @@
       <c r="F11" s="4">
         <v>52</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>112</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
+      <c r="C12" s="3">
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1405,22 +1352,19 @@
       <c r="F12" s="4">
         <v>50.2</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
         <v>114</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
+      <c r="C13" s="3">
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1431,22 +1375,19 @@
       <c r="F13" s="4">
         <v>49.3</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
         <v>115</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1457,22 +1398,19 @@
       <c r="F14" s="4">
         <v>52</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>116</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1483,22 +1421,19 @@
       <c r="F15" s="4">
         <v>52</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4">
         <v>117</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>2</v>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1509,22 +1444,19 @@
       <c r="F16" s="4">
         <v>50.7</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4">
         <v>118</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1535,22 +1467,19 @@
       <c r="F17" s="4">
         <v>54.4</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4">
         <v>119</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
+      <c r="C18" s="3">
+        <v>1</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1561,22 +1490,19 @@
       <c r="F18" s="4">
         <v>53</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4">
         <v>120</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
+      <c r="C19" s="3">
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1587,22 +1513,19 @@
       <c r="F19" s="4">
         <v>52.2</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4">
         <v>121</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>2</v>
+      <c r="C20" s="3">
+        <v>1</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1613,22 +1536,19 @@
       <c r="F20" s="4">
         <v>50</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4">
         <v>122</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
+      <c r="C21" s="3">
+        <v>1</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1639,22 +1559,19 @@
       <c r="F21" s="4">
         <v>53</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4">
         <v>123</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>2</v>
+      <c r="C22" s="3">
+        <v>1</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -1665,22 +1582,19 @@
       <c r="F22" s="4">
         <v>52</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4">
         <v>124</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>2</v>
+      <c r="C23" s="3">
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -1691,22 +1605,19 @@
       <c r="F23" s="4">
         <v>53.2</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4">
         <v>125</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>2</v>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1717,22 +1628,19 @@
       <c r="F24" s="4">
         <v>52.5</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="4">
         <v>126</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
+      <c r="C25" s="3">
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1743,22 +1651,19 @@
       <c r="F25" s="4">
         <v>50.5</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="4">
         <v>127</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>2</v>
+      <c r="C26" s="3">
+        <v>1</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1769,22 +1674,19 @@
       <c r="F26" s="4">
         <v>53.9</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4">
         <v>128</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>2</v>
+      <c r="C27" s="3">
+        <v>1</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1795,22 +1697,19 @@
       <c r="F27" s="4">
         <v>52</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="4">
         <v>129</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>2</v>
+      <c r="C28" s="3">
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -1821,22 +1720,19 @@
       <c r="F28" s="4">
         <v>54</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4">
         <v>201</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
+      <c r="C29" s="3">
+        <v>1</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -1847,22 +1743,19 @@
       <c r="F29" s="4">
         <v>49.5</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="4">
         <v>202</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>2</v>
+      <c r="C30" s="3">
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -1873,22 +1766,19 @@
       <c r="F30" s="4">
         <v>52</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G30" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="4">
         <v>203</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>2</v>
+      <c r="C31" s="3">
+        <v>1</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1899,22 +1789,19 @@
       <c r="F31" s="4">
         <v>52.5</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="4">
         <v>204</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>2</v>
+      <c r="C32" s="3">
+        <v>1</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -1925,22 +1812,19 @@
       <c r="F32" s="4">
         <v>51.5</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="4">
         <v>205</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>2</v>
+      <c r="C33" s="3">
+        <v>1</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1951,22 +1835,19 @@
       <c r="F33" s="4">
         <v>52</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="4">
         <v>206</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>2</v>
+      <c r="C34" s="3">
+        <v>1</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -1977,22 +1858,19 @@
       <c r="F34" s="4">
         <v>50.8</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G34" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4">
         <v>207</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>2</v>
+      <c r="C35" s="3">
+        <v>1</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -2003,22 +1881,19 @@
       <c r="F35" s="4">
         <v>53</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G35" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="4">
         <v>208</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>2</v>
+      <c r="C36" s="3">
+        <v>1</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2029,22 +1904,19 @@
       <c r="F36" s="4">
         <v>52</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="4">
         <v>209</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>2</v>
+      <c r="C37" s="3">
+        <v>1</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -2055,22 +1927,19 @@
       <c r="F37" s="4">
         <v>51.5</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G37" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B38" s="4">
         <v>217</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
+      <c r="C38" s="3">
+        <v>1</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2081,22 +1950,19 @@
       <c r="F38" s="4">
         <v>51</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B39" s="4">
         <v>218</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>2</v>
+      <c r="C39" s="3">
+        <v>1</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -2107,22 +1973,19 @@
       <c r="F39" s="4">
         <v>51</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G39" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B40" s="4">
         <v>219</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>2</v>
+      <c r="C40" s="3">
+        <v>1</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2133,22 +1996,19 @@
       <c r="F40" s="4">
         <v>52.7</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G40" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B41" s="4">
         <v>220</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>2</v>
+      <c r="C41" s="3">
+        <v>1</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -2159,22 +2019,19 @@
       <c r="F41" s="4">
         <v>53</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G41" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B42" s="4">
         <v>210</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>76</v>
+      <c r="C42" s="3">
+        <v>1</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -2185,22 +2042,19 @@
       <c r="F42" s="4">
         <v>52.5</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G42" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B43" s="4">
         <v>211</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>76</v>
+      <c r="C43" s="3">
+        <v>1</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -2211,22 +2065,19 @@
       <c r="F43" s="4">
         <v>52</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G43" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4">
         <v>212</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>76</v>
+      <c r="C44" s="3">
+        <v>1</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -2237,22 +2088,19 @@
       <c r="F44" s="4">
         <v>52</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G44" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" s="25">
         <v>213</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>76</v>
+      <c r="C45" s="3">
+        <v>1</v>
       </c>
       <c r="D45" s="25">
         <v>1</v>
@@ -2263,20 +2111,17 @@
       <c r="F45" s="25">
         <v>52</v>
       </c>
-      <c r="G45" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="24"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" s="4">
         <v>214</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>76</v>
+      <c r="C46" s="3">
+        <v>1</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -2287,22 +2132,19 @@
       <c r="F46" s="4">
         <v>50.2</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G46" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4">
         <v>215</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>76</v>
+      <c r="C47" s="3">
+        <v>1</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -2313,22 +2155,19 @@
       <c r="F47" s="4">
         <v>52</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G47" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" s="4">
         <v>216</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>76</v>
+      <c r="C48" s="3">
+        <v>1</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -2339,22 +2178,19 @@
       <c r="F48" s="4">
         <v>53.5</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G48" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>96</v>
+      <c r="C49" s="8">
+        <v>2</v>
       </c>
       <c r="D49" s="9">
         <v>1</v>
@@ -2366,21 +2202,18 @@
         <v>51</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>96</v>
+      <c r="C50" s="8">
+        <v>2</v>
       </c>
       <c r="D50" s="9">
         <v>1</v>
@@ -2392,21 +2225,18 @@
         <v>53</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B51" s="9">
         <v>3</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>96</v>
+      <c r="C51" s="8">
+        <v>2</v>
       </c>
       <c r="D51" s="9">
         <v>1</v>
@@ -2418,21 +2248,18 @@
         <v>53.5</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B52" s="9">
         <v>4</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>96</v>
+      <c r="C52" s="8">
+        <v>2</v>
       </c>
       <c r="D52" s="9">
         <v>1</v>
@@ -2444,21 +2271,18 @@
         <v>50</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" s="19">
         <v>5</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>96</v>
+      <c r="C53" s="8">
+        <v>2</v>
       </c>
       <c r="D53" s="19">
         <v>1</v>
@@ -2469,20 +2293,17 @@
       <c r="F53" s="21">
         <v>51</v>
       </c>
-      <c r="G53" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="22"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B54" s="9">
         <v>7</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>96</v>
+      <c r="C54" s="8">
+        <v>2</v>
       </c>
       <c r="D54" s="9">
         <v>1</v>
@@ -2494,21 +2315,18 @@
         <v>53.5</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B55" s="9">
         <v>8</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>96</v>
+      <c r="C55" s="8">
+        <v>2</v>
       </c>
       <c r="D55" s="9">
         <v>1</v>
@@ -2520,21 +2338,18 @@
         <v>53</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B56" s="9">
         <v>9</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>96</v>
+      <c r="C56" s="8">
+        <v>2</v>
       </c>
       <c r="D56" s="9">
         <v>1</v>
@@ -2546,21 +2361,18 @@
         <v>50.2</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B57" s="9">
         <v>10</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>96</v>
+      <c r="C57" s="8">
+        <v>2</v>
       </c>
       <c r="D57" s="9">
         <v>1</v>
@@ -2572,21 +2384,18 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B58" s="4">
         <v>13</v>
       </c>
-      <c r="C58" s="8" t="s">
-        <v>96</v>
+      <c r="C58" s="8">
+        <v>2</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -2598,21 +2407,18 @@
         <v>53</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B59" s="4">
         <v>14</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>96</v>
+      <c r="C59" s="8">
+        <v>2</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -2624,21 +2430,18 @@
         <v>53</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B60" s="4">
         <v>15</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>96</v>
+      <c r="C60" s="8">
+        <v>2</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -2650,21 +2453,18 @@
         <v>52.5</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B61" s="4">
         <v>16</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>96</v>
+      <c r="C61" s="8">
+        <v>2</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -2676,21 +2476,18 @@
         <v>50.5</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B62" s="4">
         <v>17</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>96</v>
+      <c r="C62" s="8">
+        <v>2</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -2702,21 +2499,18 @@
         <v>52.2</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B63" s="4">
         <v>18</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>96</v>
+      <c r="C63" s="8">
+        <v>2</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -2728,21 +2522,18 @@
         <v>54.5</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B64" s="4">
         <v>19</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>96</v>
+      <c r="C64" s="8">
+        <v>2</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -2753,22 +2544,19 @@
       <c r="F64" s="4">
         <v>52</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G64" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B65" s="4">
         <v>20</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>96</v>
+      <c r="C65" s="8">
+        <v>2</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -2780,21 +2568,18 @@
         <v>51</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B66" s="4">
         <v>21</v>
       </c>
-      <c r="C66" s="8" t="s">
-        <v>96</v>
+      <c r="C66" s="8">
+        <v>2</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -2805,22 +2590,19 @@
       <c r="F66" s="4">
         <v>49.7</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G66" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B67" s="4">
         <v>22</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>165</v>
+      <c r="C67" s="8">
+        <v>2</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -2831,22 +2613,19 @@
       <c r="F67" s="4">
         <v>52</v>
       </c>
-      <c r="G67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G67" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B68" s="4">
         <v>23</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>96</v>
+      <c r="C68" s="8">
+        <v>2</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -2857,22 +2636,19 @@
       <c r="F68" s="4">
         <v>50.3</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G68" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B69" s="4">
         <v>24</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>96</v>
+      <c r="C69" s="8">
+        <v>2</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -2883,22 +2659,19 @@
       <c r="F69" s="4">
         <v>51.8</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B70" s="4">
         <v>25</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>96</v>
+      <c r="C70" s="8">
+        <v>2</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -2909,22 +2682,19 @@
       <c r="F70" s="4">
         <v>53</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G70" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4">
         <v>31</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>96</v>
+      <c r="C71" s="8">
+        <v>2</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -2936,21 +2706,18 @@
         <v>53.1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B72" s="4">
         <v>32</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>96</v>
+      <c r="C72" s="8">
+        <v>2</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -2962,21 +2729,18 @@
         <v>49.8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B73" s="4">
         <v>33</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>96</v>
+      <c r="C73" s="8">
+        <v>2</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -2988,21 +2752,18 @@
         <v>50</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B74" s="4">
         <v>34</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>96</v>
+      <c r="C74" s="8">
+        <v>2</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -3014,21 +2775,18 @@
         <v>53.3</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B75" s="4">
         <v>35</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>96</v>
+      <c r="C75" s="8">
+        <v>2</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -3040,21 +2798,18 @@
         <v>50.2</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B76" s="4">
         <v>36</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>96</v>
+      <c r="C76" s="8">
+        <v>2</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -3065,22 +2820,19 @@
       <c r="F76" s="4">
         <v>51.2</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="24" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G76" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B77" s="4">
         <v>37</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>96</v>
+      <c r="C77" s="8">
+        <v>2</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -3092,21 +2844,18 @@
         <v>52</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B78" s="12">
         <v>38</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>96</v>
+      <c r="C78" s="8">
+        <v>2</v>
       </c>
       <c r="D78" s="12">
         <v>1</v>
@@ -3118,21 +2867,18 @@
         <v>51.4</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B79" s="12">
         <v>39</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>96</v>
+      <c r="C79" s="8">
+        <v>2</v>
       </c>
       <c r="D79" s="12">
         <v>2</v>
@@ -3143,22 +2889,19 @@
       <c r="F79" s="12">
         <v>52</v>
       </c>
-      <c r="G79" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G79" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B80" s="12">
         <v>40</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>96</v>
+      <c r="C80" s="8">
+        <v>2</v>
       </c>
       <c r="D80" s="12">
         <v>1</v>
@@ -3169,22 +2912,19 @@
       <c r="F80" s="12">
         <v>52</v>
       </c>
-      <c r="G80" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G80" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B81" s="12">
         <v>41</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>96</v>
+      <c r="C81" s="8">
+        <v>2</v>
       </c>
       <c r="D81" s="12">
         <v>1</v>
@@ -3195,22 +2935,19 @@
       <c r="F81" s="12">
         <v>50</v>
       </c>
-      <c r="G81" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G81" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B82" s="12">
         <v>42</v>
       </c>
-      <c r="C82" s="13" t="s">
-        <v>96</v>
+      <c r="C82" s="8">
+        <v>2</v>
       </c>
       <c r="D82" s="12">
         <v>1</v>
@@ -3221,22 +2958,19 @@
       <c r="F82" s="12">
         <v>51</v>
       </c>
-      <c r="G82" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G82" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B83" s="12">
         <v>43</v>
       </c>
-      <c r="C83" s="13" t="s">
-        <v>96</v>
+      <c r="C83" s="8">
+        <v>2</v>
       </c>
       <c r="D83" s="12">
         <v>1</v>
@@ -3248,21 +2982,18 @@
         <v>51.2</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B84" s="12">
         <v>44</v>
       </c>
-      <c r="C84" s="13" t="s">
-        <v>96</v>
+      <c r="C84" s="8">
+        <v>2</v>
       </c>
       <c r="D84" s="12">
         <v>1</v>
@@ -3273,35 +3004,32 @@
       <c r="F84" s="12">
         <v>51.5</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84" s="16" t="s">
-        <v>181</v>
-      </c>
+      <c r="G84" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="14"/>
       <c r="O84" s="14"/>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
-      <c r="R84" s="14"/>
+      <c r="T84" s="14"/>
       <c r="U84" s="14"/>
       <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
-    </row>
-    <row r="85" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B85" s="12">
         <v>45</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>96</v>
+      <c r="C85" s="8">
+        <v>2</v>
       </c>
       <c r="D85" s="12">
         <v>1</v>
@@ -3312,35 +3040,32 @@
       <c r="F85" s="12">
         <v>50.5</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>185</v>
-      </c>
+      <c r="G85" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="14"/>
       <c r="O85" s="14"/>
       <c r="P85" s="14"/>
       <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
+      <c r="T85" s="14"/>
       <c r="U85" s="14"/>
       <c r="V85" s="14"/>
-      <c r="W85" s="14"/>
-    </row>
-    <row r="86" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B86" s="12">
         <v>46</v>
       </c>
-      <c r="C86" s="13" t="s">
-        <v>96</v>
+      <c r="C86" s="8">
+        <v>2</v>
       </c>
       <c r="D86" s="12">
         <v>2</v>
@@ -3351,35 +3076,32 @@
       <c r="F86" s="12">
         <v>51.2</v>
       </c>
-      <c r="G86" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>187</v>
-      </c>
+      <c r="G86" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="14"/>
       <c r="O86" s="14"/>
       <c r="P86" s="14"/>
       <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
+      <c r="T86" s="14"/>
       <c r="U86" s="14"/>
       <c r="V86" s="14"/>
-      <c r="W86" s="14"/>
-    </row>
-    <row r="87" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B87" s="12">
         <v>47</v>
       </c>
-      <c r="C87" s="13" t="s">
-        <v>96</v>
+      <c r="C87" s="8">
+        <v>2</v>
       </c>
       <c r="D87" s="12">
         <v>2</v>
@@ -3390,35 +3112,32 @@
       <c r="F87" s="12">
         <v>50.2</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H87" s="16" t="s">
-        <v>189</v>
-      </c>
+      <c r="G87" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
       <c r="K87" s="14"/>
       <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
-      <c r="R87" s="14"/>
+      <c r="T87" s="14"/>
       <c r="U87" s="14"/>
       <c r="V87" s="14"/>
-      <c r="W87" s="14"/>
-    </row>
-    <row r="88" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B88" s="12">
         <v>48</v>
       </c>
-      <c r="C88" s="13" t="s">
-        <v>96</v>
+      <c r="C88" s="8">
+        <v>2</v>
       </c>
       <c r="D88" s="12">
         <v>1</v>
@@ -3429,35 +3148,32 @@
       <c r="F88" s="12">
         <v>51</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="16" t="s">
-        <v>193</v>
-      </c>
+      <c r="G88" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
       <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
-      <c r="R88" s="14"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="14"/>
-    </row>
-    <row r="89" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="T88" s="13"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="14"/>
+    </row>
+    <row r="89" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B89" s="4">
         <v>2401</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>96</v>
+      <c r="C89" s="8">
+        <v>2</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -3469,34 +3185,31 @@
         <v>50.8</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>152</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
-      <c r="N89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
-      <c r="R89" s="14"/>
+      <c r="T89" s="14"/>
       <c r="U89" s="14"/>
       <c r="V89" s="14"/>
-      <c r="W89" s="14"/>
-    </row>
-    <row r="90" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B90" s="4">
         <v>2403</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>96</v>
+      <c r="C90" s="8">
+        <v>2</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -3507,35 +3220,32 @@
       <c r="F90" s="4">
         <v>52</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>146</v>
-      </c>
+      <c r="G90" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
       <c r="K90" s="14"/>
       <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="14"/>
       <c r="O90" s="14"/>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
-      <c r="R90" s="14"/>
+      <c r="T90" s="14"/>
       <c r="U90" s="14"/>
       <c r="V90" s="14"/>
-      <c r="W90" s="14"/>
-    </row>
-    <row r="91" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B91" s="4">
         <v>2404</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>96</v>
+      <c r="C91" s="8">
+        <v>2</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -3546,35 +3256,32 @@
       <c r="F91" s="4">
         <v>53</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>148</v>
-      </c>
+      <c r="G91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
       <c r="K91" s="14"/>
       <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="14"/>
       <c r="O91" s="14"/>
       <c r="P91" s="14"/>
       <c r="Q91" s="14"/>
-      <c r="R91" s="14"/>
+      <c r="T91" s="14"/>
       <c r="U91" s="14"/>
       <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
-    </row>
-    <row r="92" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B92" s="4">
         <v>2405</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>96</v>
+      <c r="C92" s="8">
+        <v>2</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -3585,35 +3292,32 @@
       <c r="F92" s="4">
         <v>52</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>142</v>
-      </c>
+      <c r="G92" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
       <c r="K92" s="14"/>
       <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="14"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
+      <c r="T92" s="14"/>
       <c r="U92" s="14"/>
       <c r="V92" s="14"/>
-      <c r="W92" s="14"/>
-    </row>
-    <row r="93" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B93" s="4">
         <v>2406</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>96</v>
+      <c r="C93" s="8">
+        <v>2</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -3624,35 +3328,32 @@
       <c r="F93" s="4">
         <v>54</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>144</v>
-      </c>
+      <c r="G93" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
       <c r="K93" s="14"/>
       <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="14"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
-      <c r="R93" s="14"/>
+      <c r="T93" s="14"/>
       <c r="U93" s="14"/>
       <c r="V93" s="14"/>
-      <c r="W93" s="14"/>
-    </row>
-    <row r="94" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B94" s="13">
         <v>2412</v>
       </c>
-      <c r="C94" s="13" t="s">
-        <v>96</v>
+      <c r="C94" s="8">
+        <v>2</v>
       </c>
       <c r="D94" s="12">
         <v>1</v>
@@ -3663,35 +3364,32 @@
       <c r="F94" s="12">
         <v>52.2</v>
       </c>
-      <c r="G94" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="16" t="s">
-        <v>183</v>
-      </c>
+      <c r="G94" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H94" s="13"/>
       <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
+      <c r="J94" s="14"/>
       <c r="K94" s="14"/>
       <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="13"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="13"/>
+      <c r="O94" s="14"/>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
+      <c r="T94" s="14"/>
       <c r="U94" s="14"/>
       <c r="V94" s="14"/>
-      <c r="W94" s="14"/>
-    </row>
-    <row r="95" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B95" s="13">
         <v>2415</v>
       </c>
-      <c r="C95" s="13" t="s">
-        <v>96</v>
+      <c r="C95" s="8">
+        <v>2</v>
       </c>
       <c r="D95" s="12">
         <v>1</v>
@@ -3702,35 +3400,32 @@
       <c r="F95" s="12">
         <v>53.3</v>
       </c>
-      <c r="G95" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>171</v>
-      </c>
+      <c r="G95" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H95" s="13"/>
       <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
+      <c r="J95" s="14"/>
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="13"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="13"/>
+      <c r="O95" s="14"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
-      <c r="R95" s="14"/>
+      <c r="T95" s="14"/>
       <c r="U95" s="14"/>
       <c r="V95" s="14"/>
-      <c r="W95" s="14"/>
-    </row>
-    <row r="96" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B96" s="25">
         <v>2416</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>96</v>
+      <c r="C96" s="8">
+        <v>2</v>
       </c>
       <c r="D96" s="25">
         <v>1</v>
@@ -3741,33 +3436,30 @@
       <c r="F96" s="25">
         <v>50</v>
       </c>
-      <c r="G96" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96" s="24"/>
-      <c r="I96" s="13"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="14"/>
       <c r="J96" s="14"/>
       <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="13"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="14"/>
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
-      <c r="R96" s="14"/>
+      <c r="T96" s="14"/>
       <c r="U96" s="14"/>
       <c r="V96" s="14"/>
-      <c r="W96" s="14"/>
-    </row>
-    <row r="97" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B97" s="13">
         <v>2417</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>96</v>
+      <c r="C97" s="8">
+        <v>2</v>
       </c>
       <c r="D97" s="12">
         <v>1</v>
@@ -3778,35 +3470,32 @@
       <c r="F97" s="12">
         <v>51.2</v>
       </c>
-      <c r="G97" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="I97" s="13"/>
+      <c r="G97" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H97" s="13"/>
+      <c r="I97" s="14"/>
       <c r="J97" s="14"/>
       <c r="K97" s="14"/>
       <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="14"/>
       <c r="O97" s="14"/>
       <c r="P97" s="14"/>
       <c r="Q97" s="14"/>
-      <c r="R97" s="14"/>
+      <c r="T97" s="14"/>
       <c r="U97" s="14"/>
       <c r="V97" s="14"/>
-      <c r="W97" s="14"/>
-    </row>
-    <row r="98" spans="1:23" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B98" s="13">
         <v>2418</v>
       </c>
-      <c r="C98" s="13" t="s">
-        <v>96</v>
+      <c r="C98" s="8">
+        <v>2</v>
       </c>
       <c r="D98" s="12">
         <v>1</v>
@@ -3817,32 +3506,30 @@
       <c r="F98" s="12">
         <v>51.5</v>
       </c>
-      <c r="G98" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="I98" s="13"/>
+      <c r="G98" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
       <c r="J98" s="14"/>
       <c r="K98" s="14"/>
       <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="14"/>
       <c r="O98" s="14"/>
       <c r="P98" s="14"/>
       <c r="Q98" s="14"/>
-      <c r="R98" s="14"/>
+      <c r="T98" s="14"/>
       <c r="U98" s="14"/>
       <c r="V98" s="14"/>
-      <c r="W98" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C98" xr:uid="{6E4D8C50-1220-48A0-974B-011AD765162C}"/>
-  <sortState ref="A2:H99">
+  <sortState ref="A2:G99">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/nirs_information.xlsx
+++ b/data/nirs_information.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE035D97-1214-4EB1-956E-94C35F9F31D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F1DEA-6C08-426C-BA05-C0F24D99E1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,7 @@
     <t>张栋旭</t>
   </si>
   <si>
-    <t>2021-08-05_003</t>
-  </si>
-  <si>
     <t>高启业</t>
-  </si>
-  <si>
-    <t>2021-08-07_006</t>
   </si>
   <si>
     <t>姜佳山</t>
@@ -617,6 +611,14 @@
   </si>
   <si>
     <t>2021-10-19_004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-05_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-08-07_006</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1073,7 @@
   <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1123,12 +1125,12 @@
         <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>2</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>102</v>
@@ -1146,12 +1148,12 @@
         <v>54.5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>4</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>103</v>
@@ -1169,12 +1171,12 @@
         <v>52.5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>104</v>
@@ -1192,12 +1194,12 @@
         <v>51</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>105</v>
@@ -1215,12 +1217,12 @@
         <v>51.8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4">
         <v>106</v>
@@ -1238,12 +1240,12 @@
         <v>51</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>107</v>
@@ -1261,12 +1263,12 @@
         <v>51.5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4">
         <v>108</v>
@@ -1284,12 +1286,12 @@
         <v>54.5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4">
         <v>109</v>
@@ -1307,12 +1309,12 @@
         <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>111</v>
@@ -1330,12 +1332,12 @@
         <v>52</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4">
         <v>112</v>
@@ -1353,12 +1355,12 @@
         <v>50.2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4">
         <v>114</v>
@@ -1376,12 +1378,12 @@
         <v>49.3</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>115</v>
@@ -1399,12 +1401,12 @@
         <v>52</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4">
         <v>116</v>
@@ -1422,12 +1424,12 @@
         <v>52</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4">
         <v>117</v>
@@ -1445,12 +1447,12 @@
         <v>50.7</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4">
         <v>118</v>
@@ -1468,12 +1470,12 @@
         <v>54.4</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4">
         <v>119</v>
@@ -1491,12 +1493,12 @@
         <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4">
         <v>120</v>
@@ -1514,12 +1516,12 @@
         <v>52.2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="4">
         <v>121</v>
@@ -1537,12 +1539,12 @@
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4">
         <v>122</v>
@@ -1560,12 +1562,12 @@
         <v>53</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4">
         <v>123</v>
@@ -1583,12 +1585,12 @@
         <v>52</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4">
         <v>124</v>
@@ -1606,12 +1608,12 @@
         <v>53.2</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4">
         <v>125</v>
@@ -1629,12 +1631,12 @@
         <v>52.5</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="4">
         <v>126</v>
@@ -1652,12 +1654,12 @@
         <v>50.5</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="4">
         <v>127</v>
@@ -1675,12 +1677,12 @@
         <v>53.9</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="4">
         <v>128</v>
@@ -1698,12 +1700,12 @@
         <v>52</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="4">
         <v>129</v>
@@ -1721,12 +1723,12 @@
         <v>54</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="4">
         <v>201</v>
@@ -1744,12 +1746,12 @@
         <v>49.5</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="4">
         <v>202</v>
@@ -1767,12 +1769,12 @@
         <v>52</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="4">
         <v>203</v>
@@ -1790,12 +1792,12 @@
         <v>52.5</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="4">
         <v>204</v>
@@ -1813,12 +1815,12 @@
         <v>51.5</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4">
         <v>205</v>
@@ -1836,12 +1838,12 @@
         <v>52</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4">
         <v>206</v>
@@ -1859,12 +1861,12 @@
         <v>50.8</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="4">
         <v>207</v>
@@ -1882,12 +1884,12 @@
         <v>53</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="4">
         <v>208</v>
@@ -1905,12 +1907,12 @@
         <v>52</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="4">
         <v>209</v>
@@ -1928,12 +1930,12 @@
         <v>51.5</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="4">
         <v>217</v>
@@ -1951,12 +1953,12 @@
         <v>51</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="4">
         <v>218</v>
@@ -1974,12 +1976,12 @@
         <v>51</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="4">
         <v>219</v>
@@ -1997,12 +1999,12 @@
         <v>52.7</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4">
         <v>220</v>
@@ -2020,12 +2022,12 @@
         <v>53</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B42" s="4">
         <v>210</v>
@@ -2043,12 +2045,12 @@
         <v>52.5</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B43" s="4">
         <v>211</v>
@@ -2066,12 +2068,12 @@
         <v>52</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B44" s="4">
         <v>212</v>
@@ -2089,12 +2091,12 @@
         <v>52</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" s="25">
         <v>213</v>
@@ -2115,7 +2117,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4">
         <v>214</v>
@@ -2133,12 +2135,12 @@
         <v>50.2</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4">
         <v>215</v>
@@ -2156,12 +2158,12 @@
         <v>52</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" s="4">
         <v>216</v>
@@ -2179,12 +2181,12 @@
         <v>53.5</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" s="9">
         <v>1</v>
@@ -2202,12 +2204,12 @@
         <v>51</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="9">
         <v>2</v>
@@ -2225,12 +2227,12 @@
         <v>53</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="9">
         <v>3</v>
@@ -2248,12 +2250,12 @@
         <v>53.5</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B52" s="9">
         <v>4</v>
@@ -2271,12 +2273,12 @@
         <v>50</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" s="19">
         <v>5</v>
@@ -2297,7 +2299,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B54" s="9">
         <v>7</v>
@@ -2315,12 +2317,12 @@
         <v>53.5</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B55" s="9">
         <v>8</v>
@@ -2338,12 +2340,12 @@
         <v>53</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B56" s="9">
         <v>9</v>
@@ -2361,12 +2363,12 @@
         <v>50.2</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57" s="9">
         <v>10</v>
@@ -2384,12 +2386,12 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" s="4">
         <v>13</v>
@@ -2407,12 +2409,12 @@
         <v>53</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B59" s="4">
         <v>14</v>
@@ -2430,12 +2432,12 @@
         <v>53</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60" s="4">
         <v>15</v>
@@ -2453,12 +2455,12 @@
         <v>52.5</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" s="4">
         <v>16</v>
@@ -2476,12 +2478,12 @@
         <v>50.5</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="4">
         <v>17</v>
@@ -2499,12 +2501,12 @@
         <v>52.2</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" s="4">
         <v>18</v>
@@ -2522,12 +2524,12 @@
         <v>54.5</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" s="4">
         <v>19</v>
@@ -2545,12 +2547,12 @@
         <v>52</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B65" s="4">
         <v>20</v>
@@ -2568,12 +2570,12 @@
         <v>51</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="4">
         <v>21</v>
@@ -2591,12 +2593,12 @@
         <v>49.7</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B67" s="4">
         <v>22</v>
@@ -2614,12 +2616,12 @@
         <v>52</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B68" s="4">
         <v>23</v>
@@ -2637,12 +2639,12 @@
         <v>50.3</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B69" s="4">
         <v>24</v>
@@ -2660,12 +2662,12 @@
         <v>51.8</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B70" s="4">
         <v>25</v>
@@ -2683,12 +2685,12 @@
         <v>53</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" s="4">
         <v>31</v>
@@ -2706,12 +2708,12 @@
         <v>53.1</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" s="4">
         <v>32</v>
@@ -2729,12 +2731,12 @@
         <v>49.8</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4">
         <v>33</v>
@@ -2752,12 +2754,12 @@
         <v>50</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B74" s="4">
         <v>34</v>
@@ -2775,12 +2777,12 @@
         <v>53.3</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B75" s="4">
         <v>35</v>
@@ -2798,12 +2800,12 @@
         <v>50.2</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" s="4">
         <v>36</v>
@@ -2821,12 +2823,12 @@
         <v>51.2</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" s="4">
         <v>37</v>
@@ -2844,12 +2846,12 @@
         <v>52</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78" s="12">
         <v>38</v>
@@ -2867,12 +2869,12 @@
         <v>51.4</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79" s="12">
         <v>39</v>
@@ -2890,12 +2892,12 @@
         <v>52</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B80" s="12">
         <v>40</v>
@@ -2913,12 +2915,12 @@
         <v>52</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B81" s="12">
         <v>41</v>
@@ -2936,12 +2938,12 @@
         <v>50</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B82" s="12">
         <v>42</v>
@@ -2959,12 +2961,12 @@
         <v>51</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:22" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B83" s="12">
         <v>43</v>
@@ -2982,12 +2984,12 @@
         <v>51.2</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B84" s="12">
         <v>44</v>
@@ -3005,7 +3007,7 @@
         <v>51.5</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
@@ -3023,7 +3025,7 @@
     </row>
     <row r="85" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B85" s="12">
         <v>45</v>
@@ -3041,7 +3043,7 @@
         <v>50.5</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
@@ -3059,7 +3061,7 @@
     </row>
     <row r="86" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B86" s="12">
         <v>46</v>
@@ -3077,7 +3079,7 @@
         <v>51.2</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
@@ -3095,7 +3097,7 @@
     </row>
     <row r="87" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B87" s="12">
         <v>47</v>
@@ -3113,7 +3115,7 @@
         <v>50.2</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
@@ -3131,7 +3133,7 @@
     </row>
     <row r="88" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B88" s="12">
         <v>48</v>
@@ -3149,7 +3151,7 @@
         <v>51</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
@@ -3167,7 +3169,7 @@
     </row>
     <row r="89" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B89" s="4">
         <v>2401</v>
@@ -3185,7 +3187,7 @@
         <v>50.8</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
@@ -3203,7 +3205,7 @@
     </row>
     <row r="90" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B90" s="4">
         <v>2403</v>
@@ -3221,7 +3223,7 @@
         <v>52</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
@@ -3239,7 +3241,7 @@
     </row>
     <row r="91" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B91" s="4">
         <v>2404</v>
@@ -3257,7 +3259,7 @@
         <v>53</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
@@ -3275,7 +3277,7 @@
     </row>
     <row r="92" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B92" s="4">
         <v>2405</v>
@@ -3293,7 +3295,7 @@
         <v>52</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
@@ -3311,7 +3313,7 @@
     </row>
     <row r="93" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B93" s="4">
         <v>2406</v>
@@ -3329,7 +3331,7 @@
         <v>54</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
@@ -3347,7 +3349,7 @@
     </row>
     <row r="94" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B94" s="13">
         <v>2412</v>
@@ -3365,7 +3367,7 @@
         <v>52.2</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
@@ -3383,7 +3385,7 @@
     </row>
     <row r="95" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" s="13">
         <v>2415</v>
@@ -3401,7 +3403,7 @@
         <v>53.3</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
@@ -3419,7 +3421,7 @@
     </row>
     <row r="96" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B96" s="25">
         <v>2416</v>
@@ -3453,7 +3455,7 @@
     </row>
     <row r="97" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B97" s="13">
         <v>2417</v>
@@ -3471,7 +3473,7 @@
         <v>51.2</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="14"/>
@@ -3489,7 +3491,7 @@
     </row>
     <row r="98" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B98" s="13">
         <v>2418</v>
@@ -3507,7 +3509,7 @@
         <v>51.5</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="14"/>

--- a/data/nirs_information.xlsx
+++ b/data/nirs_information.xlsx
@@ -1,39 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F1DEA-6C08-426C-BA05-C0F24D99E1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>test_date</t>
+  </si>
+  <si>
+    <t>head_size</t>
+  </si>
+  <si>
+    <t>file_name</t>
+  </si>
+  <si>
     <t>张栋旭</t>
   </si>
   <si>
+    <t>2021-08-05_003</t>
+  </si>
+  <si>
     <t>高启业</t>
   </si>
   <si>
+    <t>2021-08-07_006</t>
+  </si>
+  <si>
     <t>姜佳山</t>
   </si>
   <si>
@@ -238,63 +255,69 @@
     <t>2021-08-14_002</t>
   </si>
   <si>
+    <t>刘昕宇</t>
+  </si>
+  <si>
+    <t>2021-08-16_002</t>
+  </si>
+  <si>
+    <t>张宋语</t>
+  </si>
+  <si>
+    <t>2021-08-16_011</t>
+  </si>
+  <si>
+    <t>牛续</t>
+  </si>
+  <si>
+    <t>2021-08-16_008</t>
+  </si>
+  <si>
+    <t>赵广师</t>
+  </si>
+  <si>
+    <t>2021-08-16_005</t>
+  </si>
+  <si>
+    <t>陈子明</t>
+  </si>
+  <si>
+    <t>2021-08-15_009</t>
+  </si>
+  <si>
+    <t>魏景浩</t>
+  </si>
+  <si>
+    <t>2021-08-14_010</t>
+  </si>
+  <si>
+    <t>牛轶祎</t>
+  </si>
+  <si>
+    <t>2021-08-14_013</t>
+  </si>
+  <si>
+    <t>肖景轩</t>
+  </si>
+  <si>
+    <t>焦琨瑜</t>
+  </si>
+  <si>
+    <t>2021-08-15_003</t>
+  </si>
+  <si>
+    <t>马悦妍</t>
+  </si>
+  <si>
+    <t>2021-08-15_006</t>
+  </si>
+  <si>
     <t>刘宸硕</t>
   </si>
   <si>
     <t>2021-08-14_007</t>
   </si>
   <si>
-    <t>魏景浩</t>
-  </si>
-  <si>
-    <t>2021-08-14_010</t>
-  </si>
-  <si>
-    <t>牛轶祎</t>
-  </si>
-  <si>
-    <t>2021-08-14_013</t>
-  </si>
-  <si>
-    <t>肖景轩</t>
-  </si>
-  <si>
-    <t>焦琨瑜</t>
-  </si>
-  <si>
-    <t>2021-08-15_003</t>
-  </si>
-  <si>
-    <t>马悦妍</t>
-  </si>
-  <si>
-    <t>2021-08-15_006</t>
-  </si>
-  <si>
-    <t>陈子明</t>
-  </si>
-  <si>
-    <t>2021-08-15_009</t>
-  </si>
-  <si>
-    <t>刘昕宇</t>
-  </si>
-  <si>
-    <t>2021-08-16_002</t>
-  </si>
-  <si>
-    <t>赵广师</t>
-  </si>
-  <si>
-    <t>2021-08-16_005</t>
-  </si>
-  <si>
-    <t>牛续</t>
-  </si>
-  <si>
-    <t>2021-08-16_008</t>
-  </si>
-  <si>
     <t>萌萌</t>
   </si>
   <si>
@@ -304,7 +327,7 @@
     <t>妥妥</t>
   </si>
   <si>
-    <t>2021-07-22_003</t>
+    <t>2021-07-21_003</t>
   </si>
   <si>
     <t>王晟阳</t>
@@ -424,10 +447,127 @@
     <t>2021-07-29_004</t>
   </si>
   <si>
-    <t>张宋语</t>
-  </si>
-  <si>
-    <t>2021-08-16_011</t>
+    <t>阿文</t>
+  </si>
+  <si>
+    <t>2021-10-12_003</t>
+  </si>
+  <si>
+    <t>孙恺辰</t>
+  </si>
+  <si>
+    <t>2021-10-13_002</t>
+  </si>
+  <si>
+    <t>KK</t>
+  </si>
+  <si>
+    <t>2021-10-13_005</t>
+  </si>
+  <si>
+    <t>二宝</t>
+  </si>
+  <si>
+    <t>2021-10-14_002</t>
+  </si>
+  <si>
+    <t>招宝</t>
+  </si>
+  <si>
+    <t>2021-10-14_006</t>
+  </si>
+  <si>
+    <t>达达</t>
+  </si>
+  <si>
+    <t>2021-10-19_004</t>
+  </si>
+  <si>
+    <t>张乐贤</t>
+  </si>
+  <si>
+    <t>2021-10-20_002</t>
+  </si>
+  <si>
+    <t>芝麻</t>
+  </si>
+  <si>
+    <t>2021-10-21_002</t>
+  </si>
+  <si>
+    <t>姗姗</t>
+  </si>
+  <si>
+    <t>2021-10-21_005</t>
+  </si>
+  <si>
+    <t>嘟嘟</t>
+  </si>
+  <si>
+    <t>2021-10-23_008</t>
+  </si>
+  <si>
+    <t>宋伯彦</t>
+  </si>
+  <si>
+    <t>2021-10-23_011</t>
+  </si>
+  <si>
+    <t>2021-10-24_002</t>
+  </si>
+  <si>
+    <t>小九</t>
+  </si>
+  <si>
+    <t>2021-10-24_005</t>
+  </si>
+  <si>
+    <t>Zeno</t>
+  </si>
+  <si>
+    <t>2021-10-30_002</t>
+  </si>
+  <si>
+    <t>加加</t>
+  </si>
+  <si>
+    <t>2021-10-30_008</t>
+  </si>
+  <si>
+    <t>小胖</t>
+  </si>
+  <si>
+    <t>2021-10-30_011</t>
+  </si>
+  <si>
+    <t>伊伊</t>
+  </si>
+  <si>
+    <t>2021-10-31_002</t>
+  </si>
+  <si>
+    <t>大宝</t>
+  </si>
+  <si>
+    <t>2021-10-31_008</t>
+  </si>
+  <si>
+    <t>豆豆</t>
+  </si>
+  <si>
+    <t>2021-10-12_006</t>
+  </si>
+  <si>
+    <t>小豆子</t>
+  </si>
+  <si>
+    <t>2021-10-10_009</t>
+  </si>
+  <si>
+    <t>顺顺</t>
+  </si>
+  <si>
+    <t>2021-10-10_012</t>
   </si>
   <si>
     <t>晓林</t>
@@ -436,258 +576,82 @@
     <t>2021-10-10_003</t>
   </si>
   <si>
-    <t>嘟嘟</t>
-  </si>
-  <si>
     <t>2021-10-10_006</t>
   </si>
   <si>
-    <t>小豆子</t>
-  </si>
-  <si>
-    <t>2021-10-10_009</t>
-  </si>
-  <si>
-    <t>顺顺</t>
-  </si>
-  <si>
-    <t>2021-10-10_012</t>
-  </si>
-  <si>
-    <t>阿文</t>
-  </si>
-  <si>
-    <t>2021-10-12_003</t>
-  </si>
-  <si>
-    <t>豆豆</t>
-  </si>
-  <si>
-    <t>2021-10-12_006</t>
-  </si>
-  <si>
-    <t>孙恺辰</t>
-  </si>
-  <si>
-    <t>2021-10-13_002</t>
-  </si>
-  <si>
-    <t>KK</t>
-  </si>
-  <si>
-    <t>2021-10-13_005</t>
-  </si>
-  <si>
-    <t>二宝</t>
-  </si>
-  <si>
-    <t>2021-10-14_002</t>
-  </si>
-  <si>
-    <t>招宝</t>
-  </si>
-  <si>
-    <t>2021-10-14_006</t>
+    <t>正宝</t>
+  </si>
+  <si>
+    <t>2021-10-30_005</t>
+  </si>
+  <si>
+    <t>成成</t>
+  </si>
+  <si>
+    <t>2021-10-23_002</t>
   </si>
   <si>
     <t>土豆</t>
   </si>
   <si>
-    <t>达达</t>
-  </si>
-  <si>
-    <t>张乐贤</t>
-  </si>
-  <si>
-    <t>2021-10-20_002</t>
-  </si>
-  <si>
-    <t>芝麻</t>
-  </si>
-  <si>
-    <t>2021-10-21_002</t>
-  </si>
-  <si>
-    <t>姗姗</t>
-  </si>
-  <si>
-    <t>2021-10-21_005</t>
-  </si>
-  <si>
-    <t>成成</t>
-  </si>
-  <si>
-    <t>2021-10-23_002</t>
-  </si>
-  <si>
     <t>岳岳</t>
   </si>
   <si>
     <t>2021-10-23_005</t>
   </si>
   <si>
-    <t>2021-10-23_008</t>
-  </si>
-  <si>
-    <t>宋伯彦</t>
-  </si>
-  <si>
-    <t>2021-10-23_011</t>
-  </si>
-  <si>
-    <t>2021-10-24_002</t>
-  </si>
-  <si>
-    <t>小九</t>
-  </si>
-  <si>
-    <t>2021-10-24_005</t>
-  </si>
-  <si>
-    <t>Zeno</t>
-  </si>
-  <si>
-    <t>2021-10-30_002</t>
-  </si>
-  <si>
-    <t>正宝</t>
-  </si>
-  <si>
-    <t>2021-10-30_005</t>
-  </si>
-  <si>
-    <t>加加</t>
-  </si>
-  <si>
-    <t>2021-10-30_008</t>
-  </si>
-  <si>
-    <t>小胖</t>
-  </si>
-  <si>
-    <t>2021-10-30_011</t>
-  </si>
-  <si>
-    <t>伊伊</t>
-  </si>
-  <si>
-    <t>2021-10-31_002</t>
-  </si>
-  <si>
     <t>昊昊</t>
   </si>
   <si>
     <t>2021-10-31_005</t>
-  </si>
-  <si>
-    <t>大宝</t>
-  </si>
-  <si>
-    <t>2021-10-31_008</t>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>head_size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-10-19_004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-05_003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-08-07_006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="160" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="10.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <color indexed="64"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="10.000000"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -699,8 +663,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
       </patternFill>
     </fill>
   </fills>
@@ -714,80 +678,80 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,15 +764,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -850,74 +1094,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -925,7 +1109,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -951,7 +1135,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1003,16 +1187,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1028,7 +1224,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1059,55 +1255,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col customWidth="1" min="5" max="5" width="11.125"/>
+    <col customWidth="1" min="7" max="7" width="19.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4">
         <v>101</v>
@@ -1125,12 +1314,12 @@
         <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
         <v>102</v>
@@ -1148,12 +1337,12 @@
         <v>54.5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>103</v>
@@ -1171,12 +1360,12 @@
         <v>52.5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>104</v>
@@ -1194,12 +1383,12 @@
         <v>51</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>105</v>
@@ -1214,15 +1403,15 @@
         <v>44417</v>
       </c>
       <c r="F6" s="4">
-        <v>51.8</v>
+        <v>51.799999999999997</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <v>106</v>
@@ -1240,12 +1429,12 @@
         <v>51</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>107</v>
@@ -1263,12 +1452,12 @@
         <v>51.5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4">
         <v>108</v>
@@ -1286,12 +1475,12 @@
         <v>54.5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
         <v>109</v>
@@ -1309,12 +1498,12 @@
         <v>51</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4">
         <v>111</v>
@@ -1332,12 +1521,12 @@
         <v>52</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>112</v>
@@ -1352,15 +1541,15 @@
         <v>44416</v>
       </c>
       <c r="F12" s="4">
-        <v>50.2</v>
+        <v>50.200000000000003</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4">
         <v>114</v>
@@ -1375,15 +1564,15 @@
         <v>44415</v>
       </c>
       <c r="F13" s="4">
-        <v>49.3</v>
+        <v>49.299999999999997</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4">
         <v>115</v>
@@ -1401,12 +1590,12 @@
         <v>52</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4">
         <v>116</v>
@@ -1424,12 +1613,12 @@
         <v>52</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4">
         <v>117</v>
@@ -1444,15 +1633,15 @@
         <v>44416</v>
       </c>
       <c r="F16" s="4">
-        <v>50.7</v>
+        <v>50.700000000000003</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4">
         <v>118</v>
@@ -1467,15 +1656,15 @@
         <v>44415</v>
       </c>
       <c r="F17" s="4">
-        <v>54.4</v>
+        <v>54.399999999999999</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4">
         <v>119</v>
@@ -1493,12 +1682,12 @@
         <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B19" s="4">
         <v>120</v>
@@ -1513,15 +1702,15 @@
         <v>44417</v>
       </c>
       <c r="F19" s="4">
-        <v>52.2</v>
+        <v>52.200000000000003</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4">
         <v>121</v>
@@ -1539,12 +1728,12 @@
         <v>50</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B21" s="4">
         <v>122</v>
@@ -1562,12 +1751,12 @@
         <v>53</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4">
         <v>123</v>
@@ -1585,12 +1774,12 @@
         <v>52</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B23" s="4">
         <v>124</v>
@@ -1605,15 +1794,15 @@
         <v>44420</v>
       </c>
       <c r="F23" s="4">
-        <v>53.2</v>
+        <v>53.200000000000003</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B24" s="4">
         <v>125</v>
@@ -1631,12 +1820,12 @@
         <v>52.5</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4">
         <v>126</v>
@@ -1654,12 +1843,12 @@
         <v>50.5</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4">
         <v>127</v>
@@ -1674,15 +1863,15 @@
         <v>44418</v>
       </c>
       <c r="F26" s="4">
-        <v>53.9</v>
+        <v>53.899999999999999</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4">
         <v>128</v>
@@ -1700,12 +1889,12 @@
         <v>52</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B28" s="4">
         <v>129</v>
@@ -1723,12 +1912,12 @@
         <v>54</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4">
         <v>201</v>
@@ -1746,12 +1935,12 @@
         <v>49.5</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4">
         <v>202</v>
@@ -1769,12 +1958,12 @@
         <v>52</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4">
         <v>203</v>
@@ -1792,12 +1981,12 @@
         <v>52.5</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4">
         <v>204</v>
@@ -1815,12 +2004,12 @@
         <v>51.5</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B33" s="4">
         <v>205</v>
@@ -1838,12 +2027,12 @@
         <v>52</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4">
         <v>206</v>
@@ -1858,15 +2047,15 @@
         <v>44421</v>
       </c>
       <c r="F34" s="4">
-        <v>50.8</v>
+        <v>50.799999999999997</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B35" s="4">
         <v>207</v>
@@ -1884,12 +2073,12 @@
         <v>53</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4">
         <v>208</v>
@@ -1907,12 +2096,12 @@
         <v>52</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B37" s="4">
         <v>209</v>
@@ -1930,12 +2119,12 @@
         <v>51.5</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4">
         <v>217</v>
@@ -1946,19 +2135,19 @@
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>44424</v>
       </c>
       <c r="F38" s="4">
         <v>51</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="3" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4">
         <v>218</v>
@@ -1969,19 +2158,19 @@
       <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <v>44424</v>
       </c>
       <c r="F39" s="4">
         <v>51</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4">
         <v>219</v>
@@ -1992,19 +2181,19 @@
       <c r="D40" s="4">
         <v>1</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>44424</v>
       </c>
       <c r="F40" s="4">
-        <v>52.7</v>
+        <v>52.700000000000003</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4">
         <v>220</v>
@@ -2015,19 +2204,19 @@
       <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>44424</v>
       </c>
       <c r="F41" s="4">
         <v>53</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="B42" s="4">
         <v>210</v>
@@ -2045,12 +2234,12 @@
         <v>52.5</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4">
         <v>211</v>
@@ -2068,12 +2257,12 @@
         <v>52</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4">
         <v>212</v>
@@ -2091,33 +2280,33 @@
         <v>52</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="10">
         <v>213</v>
       </c>
       <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="25">
-        <v>1</v>
-      </c>
-      <c r="E45" s="20">
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="11">
         <v>44423</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="10">
         <v>52</v>
       </c>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46">
       <c r="A46" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B46" s="4">
         <v>214</v>
@@ -2132,15 +2321,15 @@
         <v>44423</v>
       </c>
       <c r="F46" s="4">
-        <v>50.2</v>
+        <v>50.200000000000003</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B47" s="4">
         <v>215</v>
@@ -2158,12 +2347,12 @@
         <v>52</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="3" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B48" s="4">
         <v>216</v>
@@ -2181,202 +2370,202 @@
         <v>53.5</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="9">
-        <v>1</v>
-      </c>
-      <c r="C49" s="8">
-        <v>2</v>
-      </c>
-      <c r="D49" s="9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12">
+        <v>2</v>
+      </c>
+      <c r="D49" s="13">
         <v>1</v>
       </c>
       <c r="E49" s="5">
         <v>44398</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="14">
         <v>51</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="9">
-        <v>2</v>
-      </c>
-      <c r="C50" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" s="9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="13">
+        <v>2</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2</v>
+      </c>
+      <c r="D50" s="13">
         <v>1</v>
       </c>
       <c r="E50" s="5">
         <v>44398</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="14">
         <v>53</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="9">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="13">
         <v>3</v>
       </c>
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="9">
+      <c r="C51" s="12">
+        <v>2</v>
+      </c>
+      <c r="D51" s="13">
         <v>1</v>
       </c>
       <c r="E51" s="5">
         <v>44399</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="14">
         <v>53.5</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="13">
         <v>4</v>
       </c>
-      <c r="C52" s="8">
-        <v>2</v>
-      </c>
-      <c r="D52" s="9">
+      <c r="C52" s="12">
+        <v>2</v>
+      </c>
+      <c r="D52" s="13">
         <v>1</v>
       </c>
       <c r="E52" s="5">
         <v>44399</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="14">
         <v>50</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="16">
         <v>5</v>
       </c>
-      <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="19">
-        <v>1</v>
-      </c>
-      <c r="E53" s="20">
+      <c r="C53" s="12">
+        <v>2</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11">
         <v>44400</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="17">
         <v>51</v>
       </c>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="9">
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="13">
         <v>7</v>
       </c>
-      <c r="C54" s="8">
-        <v>2</v>
-      </c>
-      <c r="D54" s="9">
+      <c r="C54" s="12">
+        <v>2</v>
+      </c>
+      <c r="D54" s="13">
         <v>1</v>
       </c>
       <c r="E54" s="5">
         <v>44400</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="14">
         <v>53.5</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="13">
         <v>8</v>
       </c>
-      <c r="C55" s="8">
-        <v>2</v>
-      </c>
-      <c r="D55" s="9">
+      <c r="C55" s="12">
+        <v>2</v>
+      </c>
+      <c r="D55" s="13">
         <v>1</v>
       </c>
       <c r="E55" s="5">
         <v>44400</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="14">
         <v>53</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B56" s="9">
+        <v>113</v>
+      </c>
+      <c r="B56" s="13">
         <v>9</v>
       </c>
-      <c r="C56" s="8">
-        <v>2</v>
-      </c>
-      <c r="D56" s="9">
+      <c r="C56" s="12">
+        <v>2</v>
+      </c>
+      <c r="D56" s="13">
         <v>1</v>
       </c>
       <c r="E56" s="5">
         <v>44401</v>
       </c>
-      <c r="F56" s="11">
-        <v>50.2</v>
+      <c r="F56" s="19">
+        <v>50.200000000000003</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="9">
+        <v>115</v>
+      </c>
+      <c r="B57" s="13">
         <v>10</v>
       </c>
-      <c r="C57" s="8">
-        <v>2</v>
-      </c>
-      <c r="D57" s="9">
+      <c r="C57" s="12">
+        <v>2</v>
+      </c>
+      <c r="D57" s="13">
         <v>1</v>
       </c>
       <c r="E57" s="5">
@@ -2386,17 +2575,17 @@
         <v>54</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B58" s="4">
         <v>13</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="12">
         <v>2</v>
       </c>
       <c r="D58" s="4">
@@ -2409,17 +2598,17 @@
         <v>53</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B59" s="4">
         <v>14</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="12">
         <v>2</v>
       </c>
       <c r="D59" s="4">
@@ -2432,17 +2621,17 @@
         <v>53</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B60" s="4">
         <v>15</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="12">
         <v>2</v>
       </c>
       <c r="D60" s="4">
@@ -2455,17 +2644,17 @@
         <v>52.5</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B61" s="4">
         <v>16</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="12">
         <v>2</v>
       </c>
       <c r="D61" s="4">
@@ -2478,17 +2667,17 @@
         <v>50.5</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B62" s="4">
         <v>17</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="12">
         <v>2</v>
       </c>
       <c r="D62" s="4">
@@ -2498,20 +2687,20 @@
         <v>44404</v>
       </c>
       <c r="F62" s="4">
-        <v>52.2</v>
+        <v>52.200000000000003</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B63" s="4">
         <v>18</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="12">
         <v>2</v>
       </c>
       <c r="D63" s="4">
@@ -2524,17 +2713,17 @@
         <v>54.5</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B64" s="4">
         <v>19</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="12">
         <v>2</v>
       </c>
       <c r="D64" s="4">
@@ -2547,17 +2736,17 @@
         <v>52</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B65" s="4">
         <v>20</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="12">
         <v>2</v>
       </c>
       <c r="D65" s="4">
@@ -2570,17 +2759,17 @@
         <v>51</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B66" s="4">
         <v>21</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="12">
         <v>2</v>
       </c>
       <c r="D66" s="4">
@@ -2590,20 +2779,20 @@
         <v>44406</v>
       </c>
       <c r="F66" s="4">
-        <v>49.7</v>
+        <v>49.700000000000003</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B67" s="4">
         <v>22</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="12">
         <v>2</v>
       </c>
       <c r="D67" s="4">
@@ -2616,17 +2805,17 @@
         <v>52</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B68" s="4">
         <v>23</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C68" s="12">
         <v>2</v>
       </c>
       <c r="D68" s="4">
@@ -2636,20 +2825,20 @@
         <v>44405</v>
       </c>
       <c r="F68" s="4">
-        <v>50.3</v>
+        <v>50.299999999999997</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B69" s="4">
         <v>24</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="12">
         <v>2</v>
       </c>
       <c r="D69" s="4">
@@ -2659,20 +2848,20 @@
         <v>44405</v>
       </c>
       <c r="F69" s="4">
-        <v>51.8</v>
+        <v>51.799999999999997</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" s="7" customFormat="1">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4">
         <v>25</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="12">
         <v>2</v>
       </c>
       <c r="D70" s="4">
@@ -2685,853 +2874,854 @@
         <v>53</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B71" s="4">
         <v>31</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="12">
         <v>2</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="8">
         <v>44481</v>
       </c>
       <c r="F71" s="4">
-        <v>53.1</v>
+        <v>53.100000000000001</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72" s="4">
         <v>32</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="12">
         <v>2</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <v>44482</v>
       </c>
       <c r="F72" s="4">
-        <v>49.8</v>
+        <v>49.799999999999997</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="4">
         <v>33</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="12">
         <v>2</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="8">
         <v>44482</v>
       </c>
       <c r="F73" s="4">
         <v>50</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" s="4">
         <v>34</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="12">
         <v>2</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="8">
         <v>44483</v>
       </c>
       <c r="F74" s="4">
-        <v>53.3</v>
+        <v>53.299999999999997</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="4">
         <v>35</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="12">
         <v>2</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="8">
         <v>44483</v>
       </c>
       <c r="F75" s="4">
-        <v>50.2</v>
+        <v>50.200000000000003</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B76" s="4">
         <v>36</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="12">
         <v>2</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="8">
         <v>44488</v>
       </c>
       <c r="F76" s="4">
-        <v>51.2</v>
-      </c>
-      <c r="G76" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51.200000000000003</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B77" s="4">
         <v>37</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="12">
         <v>2</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="8">
         <v>44489</v>
       </c>
       <c r="F77" s="4">
         <v>52</v>
       </c>
       <c r="G77" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5">
+      <c r="A78" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="21">
+        <v>38</v>
+      </c>
+      <c r="C78" s="12">
+        <v>2</v>
+      </c>
+      <c r="D78" s="21">
+        <v>1</v>
+      </c>
+      <c r="E78" s="22">
+        <v>44490</v>
+      </c>
+      <c r="F78" s="21">
+        <v>51.399999999999999</v>
+      </c>
+      <c r="G78" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+    <row r="79" ht="16.5">
+      <c r="A79" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="B78" s="12">
-        <v>38</v>
-      </c>
-      <c r="C78" s="8">
-        <v>2</v>
-      </c>
-      <c r="D78" s="12">
-        <v>1</v>
-      </c>
-      <c r="E78" s="15">
+      <c r="B79" s="21">
+        <v>39</v>
+      </c>
+      <c r="C79" s="12">
+        <v>2</v>
+      </c>
+      <c r="D79" s="21">
+        <v>2</v>
+      </c>
+      <c r="E79" s="22">
         <v>44490</v>
       </c>
-      <c r="F78" s="12">
-        <v>51.4</v>
-      </c>
-      <c r="G78" s="13" t="s">
+      <c r="F79" s="21">
+        <v>52</v>
+      </c>
+      <c r="G79" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
+    <row r="80" ht="16.5">
+      <c r="A80" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B79" s="12">
-        <v>39</v>
-      </c>
-      <c r="C79" s="8">
-        <v>2</v>
-      </c>
-      <c r="D79" s="12">
-        <v>2</v>
-      </c>
-      <c r="E79" s="15">
-        <v>44490</v>
-      </c>
-      <c r="F79" s="12">
+      <c r="B80" s="21">
+        <v>40</v>
+      </c>
+      <c r="C80" s="12">
+        <v>2</v>
+      </c>
+      <c r="D80" s="21">
+        <v>1</v>
+      </c>
+      <c r="E80" s="22">
+        <v>44491</v>
+      </c>
+      <c r="F80" s="21">
         <v>52</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G80" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B80" s="12">
-        <v>40</v>
-      </c>
-      <c r="C80" s="8">
-        <v>2</v>
-      </c>
-      <c r="D80" s="12">
-        <v>1</v>
-      </c>
-      <c r="E80" s="15">
+    <row r="81" ht="16.5">
+      <c r="A81" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="21">
+        <v>41</v>
+      </c>
+      <c r="C81" s="12">
+        <v>2</v>
+      </c>
+      <c r="D81" s="21">
+        <v>1</v>
+      </c>
+      <c r="E81" s="22">
         <v>44491</v>
       </c>
-      <c r="F80" s="12">
-        <v>52</v>
-      </c>
-      <c r="G80" s="16" t="s">
+      <c r="F81" s="21">
+        <v>50</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5">
+      <c r="A82" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="21">
+        <v>42</v>
+      </c>
+      <c r="C82" s="12">
+        <v>2</v>
+      </c>
+      <c r="D82" s="21">
+        <v>1</v>
+      </c>
+      <c r="E82" s="22">
+        <v>44493</v>
+      </c>
+      <c r="F82" s="21">
+        <v>51</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" s="7" customFormat="1" ht="16.5">
+      <c r="A83" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="21">
+        <v>43</v>
+      </c>
+      <c r="C83" s="12">
+        <v>2</v>
+      </c>
+      <c r="D83" s="21">
+        <v>1</v>
+      </c>
+      <c r="E83" s="22">
+        <v>44493</v>
+      </c>
+      <c r="F83" s="21">
+        <v>51.200000000000003</v>
+      </c>
+      <c r="G83" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+    <row r="84" s="24" customFormat="1" ht="16.5">
+      <c r="A84" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="12">
-        <v>41</v>
-      </c>
-      <c r="C81" s="8">
-        <v>2</v>
-      </c>
-      <c r="D81" s="12">
-        <v>1</v>
-      </c>
-      <c r="E81" s="15">
-        <v>44491</v>
-      </c>
-      <c r="F81" s="12">
-        <v>50</v>
-      </c>
-      <c r="G81" s="16" t="s">
+      <c r="B84" s="21">
+        <v>44</v>
+      </c>
+      <c r="C84" s="12">
+        <v>2</v>
+      </c>
+      <c r="D84" s="21">
+        <v>1</v>
+      </c>
+      <c r="E84" s="22">
+        <v>44499</v>
+      </c>
+      <c r="F84" s="21">
+        <v>51.5</v>
+      </c>
+      <c r="G84" s="23" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="12">
-        <v>42</v>
-      </c>
-      <c r="C82" s="8">
-        <v>2</v>
-      </c>
-      <c r="D82" s="12">
-        <v>1</v>
-      </c>
-      <c r="E82" s="15">
-        <v>44493</v>
-      </c>
-      <c r="F82" s="12">
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+    </row>
+    <row r="85" s="24" customFormat="1" ht="16.5">
+      <c r="A85" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="21">
+        <v>45</v>
+      </c>
+      <c r="C85" s="12">
+        <v>2</v>
+      </c>
+      <c r="D85" s="21">
+        <v>1</v>
+      </c>
+      <c r="E85" s="22">
+        <v>44499</v>
+      </c>
+      <c r="F85" s="21">
+        <v>50.5</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+    </row>
+    <row r="86" s="24" customFormat="1" ht="16.5">
+      <c r="A86" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="21">
+        <v>46</v>
+      </c>
+      <c r="C86" s="12">
+        <v>2</v>
+      </c>
+      <c r="D86" s="21">
+        <v>2</v>
+      </c>
+      <c r="E86" s="22">
+        <v>44499</v>
+      </c>
+      <c r="F86" s="21">
+        <v>51.200000000000003</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+    </row>
+    <row r="87" s="24" customFormat="1" ht="16.5">
+      <c r="A87" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="21">
+        <v>47</v>
+      </c>
+      <c r="C87" s="12">
+        <v>2</v>
+      </c>
+      <c r="D87" s="21">
+        <v>2</v>
+      </c>
+      <c r="E87" s="22">
+        <v>44500</v>
+      </c>
+      <c r="F87" s="21">
+        <v>50.200000000000003</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="25"/>
+    </row>
+    <row r="88" s="24" customFormat="1" ht="16.5">
+      <c r="A88" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="21">
+        <v>48</v>
+      </c>
+      <c r="C88" s="12">
+        <v>2</v>
+      </c>
+      <c r="D88" s="21">
+        <v>1</v>
+      </c>
+      <c r="E88" s="22">
+        <v>44500</v>
+      </c>
+      <c r="F88" s="21">
         <v>51</v>
       </c>
-      <c r="G82" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B83" s="12">
-        <v>43</v>
-      </c>
-      <c r="C83" s="8">
-        <v>2</v>
-      </c>
-      <c r="D83" s="12">
-        <v>1</v>
-      </c>
-      <c r="E83" s="15">
-        <v>44493</v>
-      </c>
-      <c r="F83" s="12">
-        <v>51.2</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="12">
-        <v>44</v>
-      </c>
-      <c r="C84" s="8">
-        <v>2</v>
-      </c>
-      <c r="D84" s="12">
-        <v>1</v>
-      </c>
-      <c r="E84" s="15">
-        <v>44499</v>
-      </c>
-      <c r="F84" s="12">
-        <v>51.5</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
-      <c r="T84" s="14"/>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-    </row>
-    <row r="85" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="G88" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="12">
-        <v>45</v>
-      </c>
-      <c r="C85" s="8">
-        <v>2</v>
-      </c>
-      <c r="D85" s="12">
-        <v>1</v>
-      </c>
-      <c r="E85" s="15">
-        <v>44499</v>
-      </c>
-      <c r="F85" s="12">
-        <v>50.5</v>
-      </c>
-      <c r="G85" s="16" t="s">
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="25"/>
+    </row>
+    <row r="89" s="24" customFormat="1" ht="16.5">
+      <c r="A89" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="T85" s="14"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="14"/>
-    </row>
-    <row r="86" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B86" s="12">
-        <v>46</v>
-      </c>
-      <c r="C86" s="8">
-        <v>2</v>
-      </c>
-      <c r="D86" s="12">
-        <v>2</v>
-      </c>
-      <c r="E86" s="15">
-        <v>44499</v>
-      </c>
-      <c r="F86" s="12">
-        <v>51.2</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="14"/>
-    </row>
-    <row r="87" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B87" s="12">
-        <v>47</v>
-      </c>
-      <c r="C87" s="8">
-        <v>2</v>
-      </c>
-      <c r="D87" s="12">
-        <v>2</v>
-      </c>
-      <c r="E87" s="15">
-        <v>44500</v>
-      </c>
-      <c r="F87" s="12">
-        <v>50.2</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
-      <c r="T87" s="14"/>
-      <c r="U87" s="14"/>
-      <c r="V87" s="14"/>
-    </row>
-    <row r="88" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B88" s="12">
-        <v>48</v>
-      </c>
-      <c r="C88" s="8">
-        <v>2</v>
-      </c>
-      <c r="D88" s="12">
-        <v>1</v>
-      </c>
-      <c r="E88" s="15">
-        <v>44500</v>
-      </c>
-      <c r="F88" s="12">
-        <v>51</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="T88" s="13"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="14"/>
-    </row>
-    <row r="89" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="B89" s="4">
         <v>2401</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="12">
         <v>2</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="8">
         <v>44481</v>
       </c>
       <c r="F89" s="4">
-        <v>50.8</v>
+        <v>50.799999999999997</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
-      <c r="Q89" s="14"/>
-      <c r="T89" s="14"/>
-      <c r="U89" s="14"/>
-      <c r="V89" s="14"/>
-    </row>
-    <row r="90" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
+      <c r="V89" s="25"/>
+    </row>
+    <row r="90" s="24" customFormat="1" ht="16.5">
       <c r="A90" s="3" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B90" s="4">
         <v>2403</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="12">
         <v>2</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="8">
         <v>44479</v>
       </c>
       <c r="F90" s="4">
         <v>52</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="14"/>
-      <c r="T90" s="14"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="14"/>
-    </row>
-    <row r="91" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+      <c r="V90" s="25"/>
+    </row>
+    <row r="91" s="24" customFormat="1" ht="16.5">
       <c r="A91" s="3" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="B91" s="4">
         <v>2404</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="12">
         <v>2</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="8">
         <v>44479</v>
       </c>
       <c r="F91" s="4">
         <v>53</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-    </row>
-    <row r="92" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
+      <c r="V91" s="25"/>
+    </row>
+    <row r="92" s="24" customFormat="1" ht="16.5">
       <c r="A92" s="3" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B92" s="4">
         <v>2405</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="12">
         <v>2</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="8">
         <v>44479</v>
       </c>
       <c r="F92" s="4">
         <v>52</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="14"/>
-      <c r="T92" s="14"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="14"/>
-    </row>
-    <row r="93" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="25"/>
+    </row>
+    <row r="93" s="24" customFormat="1" ht="16.5">
       <c r="A93" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="B93" s="4">
         <v>2406</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="12">
         <v>2</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="8">
         <v>44479</v>
       </c>
       <c r="F93" s="4">
         <v>54</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="14"/>
-      <c r="T93" s="14"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="14"/>
-    </row>
-    <row r="94" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B94" s="13">
+        <v>186</v>
+      </c>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="25"/>
+    </row>
+    <row r="94" s="24" customFormat="1" ht="16.5">
+      <c r="A94" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="20">
         <v>2412</v>
       </c>
-      <c r="C94" s="8">
-        <v>2</v>
-      </c>
-      <c r="D94" s="12">
-        <v>1</v>
-      </c>
-      <c r="E94" s="15">
+      <c r="C94" s="12">
+        <v>2</v>
+      </c>
+      <c r="D94" s="21">
+        <v>1</v>
+      </c>
+      <c r="E94" s="22">
         <v>44499</v>
       </c>
-      <c r="F94" s="12">
-        <v>52.2</v>
-      </c>
-      <c r="G94" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="14"/>
-      <c r="T94" s="14"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="14"/>
-    </row>
-    <row r="95" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" s="13">
+      <c r="F94" s="21">
+        <v>52.200000000000003</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+    </row>
+    <row r="95" s="24" customFormat="1" ht="16.5">
+      <c r="A95" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="20">
         <v>2415</v>
       </c>
-      <c r="C95" s="8">
-        <v>2</v>
-      </c>
-      <c r="D95" s="12">
-        <v>1</v>
-      </c>
-      <c r="E95" s="15">
+      <c r="C95" s="12">
+        <v>2</v>
+      </c>
+      <c r="D95" s="21">
+        <v>1</v>
+      </c>
+      <c r="E95" s="22">
         <v>44491</v>
       </c>
-      <c r="F95" s="12">
-        <v>53.3</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="13"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="14"/>
-      <c r="T95" s="14"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="14"/>
-    </row>
-    <row r="96" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="B96" s="25">
+      <c r="F95" s="21">
+        <v>53.299999999999997</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="25"/>
+    </row>
+    <row r="96" s="24" customFormat="1" ht="16.5">
+      <c r="A96" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="10">
         <v>2416</v>
       </c>
-      <c r="C96" s="8">
-        <v>2</v>
-      </c>
-      <c r="D96" s="25">
+      <c r="C96" s="12">
+        <v>2</v>
+      </c>
+      <c r="D96" s="10">
         <v>1</v>
       </c>
       <c r="E96" s="26">
         <v>44484</v>
       </c>
-      <c r="F96" s="25">
+      <c r="F96" s="10">
         <v>50</v>
       </c>
-      <c r="G96" s="24"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="13"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="14"/>
-      <c r="T96" s="14"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="14"/>
-    </row>
-    <row r="97" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="13">
+      <c r="G96" s="9"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+    </row>
+    <row r="97" s="24" customFormat="1" ht="16.5">
+      <c r="A97" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="20">
         <v>2417</v>
       </c>
-      <c r="C97" s="8">
-        <v>2</v>
-      </c>
-      <c r="D97" s="12">
-        <v>1</v>
-      </c>
-      <c r="E97" s="15">
+      <c r="C97" s="12">
+        <v>2</v>
+      </c>
+      <c r="D97" s="21">
+        <v>1</v>
+      </c>
+      <c r="E97" s="22">
         <v>44491</v>
       </c>
-      <c r="F97" s="12">
-        <v>51.2</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="H97" s="13"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
-      <c r="Q97" s="14"/>
-      <c r="T97" s="14"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="14"/>
-    </row>
-    <row r="98" spans="1:22" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B98" s="13">
+      <c r="F97" s="21">
+        <v>51.200000000000003</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="25"/>
+    </row>
+    <row r="98" s="24" customFormat="1" ht="16.5">
+      <c r="A98" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="20">
         <v>2418</v>
       </c>
-      <c r="C98" s="8">
-        <v>2</v>
-      </c>
-      <c r="D98" s="12">
-        <v>1</v>
-      </c>
-      <c r="E98" s="15">
+      <c r="C98" s="12">
+        <v>2</v>
+      </c>
+      <c r="D98" s="21">
+        <v>1</v>
+      </c>
+      <c r="E98" s="22">
         <v>44500</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="21">
         <v>51.5</v>
       </c>
-      <c r="G98" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="H98" s="13"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="14"/>
-      <c r="T98" s="14"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="14"/>
+      <c r="G98" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C98" xr:uid="{6E4D8C50-1220-48A0-974B-011AD765162C}"/>
+  <autoFilter ref="C1:C98"/>
   <sortState ref="A2:G99">
     <sortCondition ref="C1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="0"/>
+  <headerFooter/>
 </worksheet>
 </file>